--- a/master data mahasiswa TA.xlsx
+++ b/master data mahasiswa TA.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfbee3ff0ebd21f1/simta application/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfbee3ff0ebd21f1/simta application/simta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="14_{530DA884-83DA-4C64-A992-12F8642618A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0AF1464-8C0A-4D8B-B45E-D8E0FB3B596E}"/>
+  <xr:revisionPtr revIDLastSave="183" documentId="14_{530DA884-83DA-4C64-A992-12F8642618A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8510AD26-A09F-448D-97D7-58BDE6153461}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9D7D56C9-3BFC-42AD-8CDB-4B7184614D5D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{9D7D56C9-3BFC-42AD-8CDB-4B7184614D5D}"/>
   </bookViews>
   <sheets>
     <sheet name="ganjil 2021-2022" sheetId="5" r:id="rId1"/>
     <sheet name="genap 2021-2022" sheetId="6" r:id="rId2"/>
     <sheet name="ganjil 2022-2023" sheetId="7" r:id="rId3"/>
+    <sheet name="genap 2022-2023" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,80 +36,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="95">
   <si>
     <t>nim</t>
   </si>
   <si>
-    <t>dosen pembimbing 1</t>
-  </si>
-  <si>
-    <t>dosen pembimbing 2</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
     <t>Irene Dyah Ayuwati</t>
   </si>
   <si>
-    <t>Yupit Sudianto, S.Kom., M.Kom.</t>
-  </si>
-  <si>
-    <t>Rokhmatul Insani, S.T., M.T.</t>
-  </si>
-  <si>
     <t>Lulus</t>
   </si>
   <si>
     <t>Amalina Tri Setya Berliana</t>
   </si>
   <si>
-    <t>Hawwin Mardhiana, S.Kom., M.Kom.</t>
-  </si>
-  <si>
-    <t>Aris Kusumawati, S.Kom., M.Kom.</t>
-  </si>
-  <si>
     <t>Rahmat Andika Laksana</t>
   </si>
   <si>
-    <t>Purnama Anaking, S.Kom., M.Kom.</t>
-  </si>
-  <si>
     <t>Muhammad Luqman Naufal</t>
   </si>
   <si>
-    <t>Mochamad Nizar Palefi Ma'ady, S.Kom., M.Kom., M.IM.</t>
-  </si>
-  <si>
     <t>Salindri Retno Malini Kusuma Supardi</t>
   </si>
   <si>
-    <t>Aris Kusumawati, S.Kom.,M.Kom.</t>
-  </si>
-  <si>
-    <t>Ully Asfari, S.Kom., M.Kom.</t>
-  </si>
-  <si>
     <t>Gagas Putra Dawangga</t>
   </si>
   <si>
-    <t>Noerma Pudji Istyanto, S.Kom.,M.Kom.</t>
-  </si>
-  <si>
-    <t>Sri Hidayati, S.Si., M.Stat.</t>
-  </si>
-  <si>
     <t>Nabillah Monica Hidayat</t>
   </si>
   <si>
-    <t>Muhamad Nasrullah, S.Kom., M.Kom.</t>
-  </si>
-  <si>
-    <t>Agus Sulistya, Ph.D</t>
-  </si>
-  <si>
     <t>Tanang Satriyo Adi</t>
   </si>
   <si>
@@ -290,9 +249,6 @@
   </si>
   <si>
     <t>Evaluasi Sistem Informasi Akademik Berdasarkan Model Kualitas Delone &amp; McLean (Studi Kasus: KRS Online Igracias ITTelkom Surabaya)</t>
-  </si>
-  <si>
-    <t>tanggal proposal</t>
   </si>
   <si>
     <t>amalinatri@student.ittelkom-sby.ac.id</t>
@@ -310,13 +266,70 @@
   <si>
     <t>Perancangan User Interface Pada Sistem Informasi Akademik Igracias Menggunakan Pendekatan User Centered Design Di 
 Institute Teknologi Telkom Surabaya</t>
+  </si>
+  <si>
+    <t>andikalaksana2000@gmail.com</t>
+  </si>
+  <si>
+    <t>myusufff@student.ittelkom-sby.ac.id</t>
+  </si>
+  <si>
+    <t>YPS</t>
+  </si>
+  <si>
+    <t>HWM</t>
+  </si>
+  <si>
+    <t>ARS</t>
+  </si>
+  <si>
+    <t>RIN</t>
+  </si>
+  <si>
+    <t>PUR</t>
+  </si>
+  <si>
+    <t>MNP</t>
+  </si>
+  <si>
+    <t>NPI</t>
+  </si>
+  <si>
+    <t>ULF</t>
+  </si>
+  <si>
+    <t>NAS</t>
+  </si>
+  <si>
+    <t>AGS</t>
+  </si>
+  <si>
+    <t>periode proposal</t>
+  </si>
+  <si>
+    <t>SRI</t>
+  </si>
+  <si>
+    <t>dospem 1</t>
+  </si>
+  <si>
+    <t>dospem 2</t>
+  </si>
+  <si>
+    <t>Pengelolaan Layanan Operasional Igracias Institut Teknologi Telkom Surabaya Berdasarkan Service Operation ITIL V3</t>
+  </si>
+  <si>
+    <t>Analisa Tingkat Kepuasan Pengguna Indihome Sidoarjo Menggunakan Metode Speed Increment</t>
+  </si>
+  <si>
+    <t>Evaluasi Pengalaman Pengguna Aplikasi Siamo (Sistem Informasi Administrasi Manajemen Operasi) Dengan Menggunakan Metode System Usability Scale (SUS) Dan Usability Testing (Studi Kasus: PMR Dan KSR di Kota Surabaya)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,6 +380,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -385,10 +409,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -428,9 +453,31 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{537DF2B6-8DC9-407A-96F2-63EEF378639F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -746,17 +793,18 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2:H3"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.7265625" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7265625" customWidth="1"/>
-    <col min="5" max="5" width="39.08984375" customWidth="1"/>
-    <col min="6" max="6" width="42.54296875" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61" customWidth="1"/>
+    <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" customWidth="1"/>
     <col min="9" max="9" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -765,54 +813,54 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="7" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="7" customFormat="1" ht="50" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>1204181023</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="6">
         <v>44440</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="7" customFormat="1" ht="50" x14ac:dyDescent="0.35">
@@ -820,25 +868,25 @@
         <v>1204181014</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C3" s="6">
         <v>44440</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -852,20 +900,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4581FFC7-B881-4499-AE83-3025939247E8}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.81640625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.453125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6328125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="34.1796875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="48.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.26953125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7265625" style="4"/>
     <col min="9" max="9" width="11.7265625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.7265625" style="4"/>
@@ -876,48 +923,51 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="11" customFormat="1" ht="50" x14ac:dyDescent="0.35">
       <c r="A2" s="11">
         <v>1204180002</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C2" s="13">
         <v>44593</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -925,19 +975,19 @@
         <v>1204180003</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C3" s="13">
         <v>44593</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -945,42 +995,42 @@
         <v>1204180006</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C4" s="13">
         <v>44593</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="11" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="11" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>1204180007</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C5" s="13">
         <v>44593</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -988,19 +1038,19 @@
         <v>1204180009</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C6" s="13">
         <v>44593</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -1008,19 +1058,19 @@
         <v>1204180013</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C7" s="13">
         <v>44593</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -1028,42 +1078,42 @@
         <v>1204180016</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C8" s="13">
         <v>44593</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="11" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="11" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>1204180024</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C9" s="13">
         <v>44593</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -1071,19 +1121,19 @@
         <v>1204180026</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C10" s="13">
         <v>44593</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -1091,19 +1141,19 @@
         <v>1204180027</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C11" s="13">
         <v>44593</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -1111,42 +1161,42 @@
         <v>1204180029</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C12" s="13">
         <v>44593</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="11" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="11" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>1204180031</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C13" s="13">
         <v>44593</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -1154,19 +1204,19 @@
         <v>1204181004</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C14" s="13">
         <v>44593</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -1174,39 +1224,42 @@
         <v>1204181008</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C15" s="13">
         <v>44593</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="11" customFormat="1" ht="50" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>1204181011</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C16" s="13">
         <v>44593</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -1214,19 +1267,19 @@
         <v>1204181021</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C17" s="13">
         <v>44593</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -1234,19 +1287,19 @@
         <v>1204181028</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C18" s="13">
         <v>44593</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -1254,19 +1307,19 @@
         <v>1204183030</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C19" s="13">
         <v>44593</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -1274,13 +1327,13 @@
         <v>1204180005</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -1288,13 +1341,13 @@
         <v>1204180015</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -1302,13 +1355,13 @@
         <v>1204180017</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -1316,13 +1369,13 @@
         <v>1204180018</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -1330,13 +1383,13 @@
         <v>1204180019</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -1344,13 +1397,13 @@
         <v>1204180020</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1363,21 +1416,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C966F923-3B2B-4299-B621-1C0A34313445}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6328125" customWidth="1"/>
-    <col min="5" max="5" width="33.54296875" customWidth="1"/>
-    <col min="6" max="6" width="48.1796875" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" customWidth="1"/>
-    <col min="8" max="8" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.90625" style="16" customWidth="1"/>
+    <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" customWidth="1"/>
     <col min="9" max="9" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1386,640 +1438,1101 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+      <c r="A2" s="12">
+        <v>1204199045</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="20">
+        <v>44743</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="12">
+        <v>1204190066</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="20">
+        <v>44743</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>80</v>
       </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="12">
+        <v>1204199039</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="20">
+        <v>44743</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="12">
+        <v>1204190051</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="20">
+        <v>44743</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="12">
+        <v>1204190018</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="20">
+        <v>44743</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="12">
+        <v>1204190050</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="20">
+        <v>44743</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="12">
+        <v>1204190057</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="20">
+        <v>44743</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="12">
+        <v>1204192062</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="20">
+        <v>44743</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="12">
+        <v>1204190002</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="20">
+        <v>44743</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="12">
+        <v>1204192013</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="20">
+        <v>44743</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="12">
+        <v>1204199007</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="20">
+        <v>44743</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="12">
+        <v>1204199001</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="20">
+        <v>44743</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="12">
+        <v>1204190067</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="20">
+        <v>44743</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="12">
+        <v>1204190006</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="20">
+        <v>44743</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="12">
+        <v>1204190046</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="20">
+        <v>44743</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="12">
+        <v>1204190021</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="20">
+        <v>44743</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="12">
+        <v>1204190014</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="20">
+        <v>44743</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="12">
+        <v>1204190032</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="20">
+        <v>44743</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="12">
+        <v>1204190037</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="20">
+        <v>44743</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="12">
+        <v>1204190010</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="20">
+        <v>44743</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="12">
+        <v>1204190015</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="20">
+        <v>44743</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="12">
+        <v>1204190029</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="20">
+        <v>44743</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="12">
+        <v>1204190058</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="20">
+        <v>44743</v>
+      </c>
+      <c r="D24" s="19"/>
+      <c r="E24" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="12">
+        <v>1204190069</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="20">
+        <v>44743</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="12">
+        <v>1204199043</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="20">
+        <v>44743</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="12">
+        <v>1204190049</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="20">
+        <v>44743</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="12">
+        <v>1204190060</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="20">
+        <v>44743</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="12">
+        <v>1204190073</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="20">
+        <v>44743</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="12">
+        <v>1204190012</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="20">
+        <v>44743</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="12">
+        <v>1204192020</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="20">
+        <v>44743</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="12">
+        <v>1204190042</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="20">
+        <v>44743</v>
+      </c>
+      <c r="D32" s="19"/>
+      <c r="E32" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="12">
+        <v>1204190011</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="20">
+        <v>44743</v>
+      </c>
+      <c r="D33" s="19"/>
+      <c r="E33" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="12">
+        <v>1204199061</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="20">
+        <v>44743</v>
+      </c>
+      <c r="D34" s="19"/>
+      <c r="E34" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="12">
+        <v>1204192030</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="20">
+        <v>44743</v>
+      </c>
+      <c r="D35" s="19"/>
+      <c r="E35" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="12">
+        <v>1204190017</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="20">
+        <v>44743</v>
+      </c>
+      <c r="D36" s="19"/>
+      <c r="E36" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="12">
+        <v>1204190063</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="20">
+        <v>44743</v>
+      </c>
+      <c r="D37" s="19"/>
+      <c r="E37" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" s="4"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I37">
+    <sortCondition ref="B1:B37"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CC19EE-8F0D-4BC1-80CB-7F34D94B7007}">
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.90625" style="16" customWidth="1"/>
+    <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="C1" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>1204199045</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>1204190066</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>1204199039</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>1204190051</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>1204190063</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>1204190018</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>1204190050</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>1204190057</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>1204192062</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
-        <v>1204190002</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
-        <v>1204192013</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
-        <v>1204199007</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
-        <v>1204199001</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
-        <v>1204190067</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
-        <v>1204190006</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
-        <v>1204190046</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
-        <v>1204190021</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
-        <v>1204190014</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
-        <v>1204190032</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
-        <v>1204190037</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="3">
-        <v>1204190010</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
-        <v>1204190015</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="3">
-        <v>1204190029</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="3">
-        <v>1204190058</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="3">
-        <v>1204190069</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="3">
-        <v>1204199043</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="3">
-        <v>1204190049</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="3">
-        <v>1204190060</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="3">
-        <v>1204190073</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="3">
-        <v>1204190012</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="3">
-        <v>1204192020</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="3">
-        <v>1204190042</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="3">
-        <v>1204190011</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="3">
-        <v>1204199061</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="3">
-        <v>1204192030</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="3">
-        <v>1204190017</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
       <c r="G37" s="4"/>
     </row>
   </sheetData>

--- a/master data mahasiswa TA.xlsx
+++ b/master data mahasiswa TA.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfbee3ff0ebd21f1/simta application/simta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="183" documentId="14_{530DA884-83DA-4C64-A992-12F8642618A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8510AD26-A09F-448D-97D7-58BDE6153461}"/>
+  <xr:revisionPtr revIDLastSave="195" documentId="14_{530DA884-83DA-4C64-A992-12F8642618A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B407195-77D2-4779-A00B-B322BB150690}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{9D7D56C9-3BFC-42AD-8CDB-4B7184614D5D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{9D7D56C9-3BFC-42AD-8CDB-4B7184614D5D}"/>
   </bookViews>
   <sheets>
-    <sheet name="ganjil 2021-2022" sheetId="5" r:id="rId1"/>
-    <sheet name="genap 2021-2022" sheetId="6" r:id="rId2"/>
-    <sheet name="ganjil 2022-2023" sheetId="7" r:id="rId3"/>
-    <sheet name="genap 2022-2023" sheetId="10" r:id="rId4"/>
+    <sheet name="gjl 21.22" sheetId="5" r:id="rId1"/>
+    <sheet name="gnp 21.22" sheetId="6" r:id="rId2"/>
+    <sheet name="gjl 22.23" sheetId="7" r:id="rId3"/>
+    <sheet name="gnp 22.23" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -257,17 +257,9 @@
     <t>irenedyah@student.ittelkom-sby.ac.id</t>
   </si>
   <si>
-    <t>Perancangan Website Angkutan Umum Dengan Metode Prototyping Sebagai Upaya Mengurangi Interaksi Pengguna Public 
-Transportation Di Era Pandemi Covid-19 (Studi Kasus Kota Tuban Jawa Timur)</t>
-  </si>
-  <si>
     <t>Evaluasi Pengalaman Pengguna Aplikasi Mobile Xgracias Telkom Campus Menggunakan User Experience Questionnaire (UEQ)</t>
   </si>
   <si>
-    <t>Perancangan User Interface Pada Sistem Informasi Akademik Igracias Menggunakan Pendekatan User Centered Design Di 
-Institute Teknologi Telkom Surabaya</t>
-  </si>
-  <si>
     <t>andikalaksana2000@gmail.com</t>
   </si>
   <si>
@@ -323,6 +315,12 @@
   </si>
   <si>
     <t>Evaluasi Pengalaman Pengguna Aplikasi Siamo (Sistem Informasi Administrasi Manajemen Operasi) Dengan Menggunakan Metode System Usability Scale (SUS) Dan Usability Testing (Studi Kasus: PMR Dan KSR di Kota Surabaya)</t>
+  </si>
+  <si>
+    <t>Perancangan Website Angkutan Umum Dengan Metode Prototyping Sebagai Upaya Mengurangi Interaksi Pengguna Public Transportation Di Era Pandemi Covid-19 (Studi Kasus Kota Tuban Jawa Timur)</t>
+  </si>
+  <si>
+    <t>Perancangan User Interface Pada Sistem Informasi Akademik Igracias Menggunakan Pendekatan User Centered Design Di Institute Teknologi Telkom Surabaya</t>
   </si>
 </sst>
 </file>
@@ -816,16 +814,16 @@
         <v>66</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -851,10 +849,10 @@
         <v>70</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>3</v>
@@ -877,10 +875,10 @@
         <v>69</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>3</v>
@@ -901,8 +899,8 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -926,16 +924,16 @@
         <v>66</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
@@ -958,16 +956,16 @@
         <v>44593</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -981,10 +979,10 @@
         <v>44593</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>3</v>
@@ -1001,16 +999,16 @@
         <v>44593</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="11" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>1204180007</v>
       </c>
@@ -1021,13 +1019,13 @@
         <v>44593</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>3</v>
@@ -1044,10 +1042,10 @@
         <v>44593</v>
       </c>
       <c r="E6" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>84</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>86</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>3</v>
@@ -1064,10 +1062,10 @@
         <v>44593</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>3</v>
@@ -1084,16 +1082,16 @@
         <v>44593</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="11" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>1204180024</v>
       </c>
@@ -1104,13 +1102,13 @@
         <v>44593</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>3</v>
@@ -1127,10 +1125,10 @@
         <v>44593</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>3</v>
@@ -1147,10 +1145,10 @@
         <v>44593</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>3</v>
@@ -1167,16 +1165,16 @@
         <v>44593</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="11" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>1204180031</v>
       </c>
@@ -1187,13 +1185,13 @@
         <v>44593</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="E13" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>84</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>86</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>3</v>
@@ -1210,10 +1208,10 @@
         <v>44593</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>3</v>
@@ -1230,10 +1228,10 @@
         <v>44593</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>3</v>
@@ -1250,16 +1248,16 @@
         <v>44593</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -1273,10 +1271,10 @@
         <v>44593</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>3</v>
@@ -1293,10 +1291,10 @@
         <v>44593</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>3</v>
@@ -1313,10 +1311,10 @@
         <v>44593</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>3</v>
@@ -1330,10 +1328,10 @@
         <v>23</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -1344,10 +1342,10 @@
         <v>24</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -1358,10 +1356,10 @@
         <v>25</v>
       </c>
       <c r="E22" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>84</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -1372,10 +1370,10 @@
         <v>26</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -1386,10 +1384,10 @@
         <v>27</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -1400,10 +1398,10 @@
         <v>28</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1416,8 +1414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C966F923-3B2B-4299-B621-1C0A34313445}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1441,16 +1439,16 @@
         <v>66</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
@@ -1473,13 +1471,13 @@
         <v>44743</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G2" s="4"/>
     </row>
@@ -1494,13 +1492,13 @@
         <v>44743</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>80</v>
       </c>
       <c r="G3" s="4"/>
     </row>
@@ -1515,13 +1513,13 @@
         <v>44743</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -1537,10 +1535,10 @@
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -1556,10 +1554,10 @@
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -1575,10 +1573,10 @@
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -1594,10 +1592,10 @@
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -1613,10 +1611,10 @@
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -1632,10 +1630,10 @@
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -1651,10 +1649,10 @@
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>83</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -1670,10 +1668,10 @@
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G12" s="4"/>
     </row>
@@ -1689,10 +1687,10 @@
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G13" s="4"/>
     </row>
@@ -1708,10 +1706,10 @@
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G14" s="4"/>
     </row>
@@ -1727,10 +1725,10 @@
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>80</v>
       </c>
       <c r="G15" s="4"/>
     </row>
@@ -1746,10 +1744,10 @@
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G16" s="4"/>
     </row>
@@ -1765,10 +1763,10 @@
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1784,10 +1782,10 @@
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -1803,10 +1801,10 @@
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -1822,10 +1820,10 @@
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="12" t="s">
         <v>84</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>86</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -1841,10 +1839,10 @@
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1860,10 +1858,10 @@
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1879,10 +1877,10 @@
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -1898,10 +1896,10 @@
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -1917,10 +1915,10 @@
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>80</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -1936,10 +1934,10 @@
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1955,10 +1953,10 @@
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1974,10 +1972,10 @@
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1993,10 +1991,10 @@
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G29" s="4"/>
     </row>
@@ -2012,10 +2010,10 @@
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>80</v>
       </c>
       <c r="G30" s="4"/>
     </row>
@@ -2031,10 +2029,10 @@
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>80</v>
       </c>
       <c r="G31" s="4"/>
     </row>
@@ -2050,10 +2048,10 @@
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G32" s="4"/>
     </row>
@@ -2069,10 +2067,10 @@
       </c>
       <c r="D33" s="19"/>
       <c r="E33" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>80</v>
       </c>
       <c r="G33" s="4"/>
     </row>
@@ -2088,10 +2086,10 @@
       </c>
       <c r="D34" s="19"/>
       <c r="E34" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G34" s="4"/>
     </row>
@@ -2107,10 +2105,10 @@
       </c>
       <c r="D35" s="19"/>
       <c r="E35" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G35" s="4"/>
     </row>
@@ -2126,10 +2124,10 @@
       </c>
       <c r="D36" s="19"/>
       <c r="E36" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G36" s="4"/>
     </row>
@@ -2145,10 +2143,10 @@
       </c>
       <c r="D37" s="19"/>
       <c r="E37" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G37" s="4"/>
     </row>
@@ -2165,9 +2163,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CC19EE-8F0D-4BC1-80CB-7F34D94B7007}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2190,16 +2188,16 @@
         <v>66</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>

--- a/master data mahasiswa TA.xlsx
+++ b/master data mahasiswa TA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfbee3ff0ebd21f1/simta application/simta/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kampus\HLP\simta\sim-ta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="195" documentId="14_{530DA884-83DA-4C64-A992-12F8642618A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B407195-77D2-4779-A00B-B322BB150690}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475FD592-FCDF-419D-9937-D1DDEE3C4309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{9D7D56C9-3BFC-42AD-8CDB-4B7184614D5D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{9D7D56C9-3BFC-42AD-8CDB-4B7184614D5D}"/>
   </bookViews>
   <sheets>
     <sheet name="gjl 21.22" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="gjl 22.23" sheetId="7" r:id="rId3"/>
     <sheet name="gnp 22.23" sheetId="10" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,9 +26,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="144">
   <si>
     <t>nim</t>
   </si>
@@ -321,13 +324,160 @@
   </si>
   <si>
     <t>Perancangan User Interface Pada Sistem Informasi Akademik Igracias Menggunakan Pendekatan User Centered Design Di Institute Teknologi Telkom Surabaya</t>
+  </si>
+  <si>
+    <t>Analisis Kepuasan Pelanggan Menggunakan Metode Servqual Dan Quality Function Development (Qfd) Pada Bisnis Online Di Pandawa Store Sidoarjo</t>
+  </si>
+  <si>
+    <t>Evaluasi User Experience Dan Pemodelan Ulang User Interface Pada Aplikasi Xgracias Menggunakan Metode Design Thinking Dan Maze Usability Testing</t>
+  </si>
+  <si>
+    <t>Analisis Dan Evaluasi Perancangan Prototype Ui Ux Pada Website Electronic Library It Telkom Surabaya Menggunakan Metode User Centered Design</t>
+  </si>
+  <si>
+    <t>Rancang Bangun Aplikasi Reporting Postingan Berita Dan Media Sosial Berbasis Web Pada Institut Teknologi  Telkom Surabaya</t>
+  </si>
+  <si>
+    <t>Evaluasi Kualitas Layanan Website Dinas Kebudayaan Dan Pariwisata Provinsi Jawa Timur Dengan Metode E-Govqual, Human Organization ( Hot ) Fit Dan Kano Model</t>
+  </si>
+  <si>
+    <t>Perancangan Business Continuity Plan Pada Pengembangan Sistem Puti (Pusat Teknologi Informasi) Di Institut Teknologi Telkom Surabaya</t>
+  </si>
+  <si>
+    <t>Penerapan Algoritma C4.5 Untuk Memprediksi Kelulusan Mahasiswa S1 Di Ittelkom Surabaya (Studi Kasus: Prodi Sistem Informasi)</t>
+  </si>
+  <si>
+    <t>Analisis Manajemen Risiko Keamanan Informasi Pada Website Akademik Xyz Menggunakan Metode Octave Allegro</t>
+  </si>
+  <si>
+    <t>Evaluasi Kepuasan Mahasiswa Terhadap Hybrid Learning Menggunakan Metode Hot Fit Model Studi Kasus It Telkom Surabaya</t>
+  </si>
+  <si>
+    <t>Redesain Website Satuan Penjaminan Mutu Dan Perencanaan (Spm) Ittelkom Surabaya Dengan Menggunakan Metode User Centered Design (Ucd)</t>
+  </si>
+  <si>
+    <t>Pengukuran Tingkat Kematangan Pada Pusat Teknologi Informasi (Puti) Institut Teknologi Telkom Surabaya Menggunakan Framework Cobit 2019 Domain Deliver, Service, And Support (Dss)</t>
+  </si>
+  <si>
+    <t>Perancangan Sistem Informasi Untuk Pengelolaan Honor Instruktur Internal Berbasis Web Di Pt. Pjb Academy Surabaya Dengan Metode Pengembangan Sdlc Waterfall</t>
+  </si>
+  <si>
+    <t>Analisis Dan Perancangan Ui/Ux Dengan Metode The Five Planes Pada Umkm Kedai Visual</t>
+  </si>
+  <si>
+    <t>Analisis Kualitas Website Pelayanan Akademik Perguruan Tinggi Menggunakan Pendekatan Integrasi Metode Webqual 4.0 Dan Importance Performance Analysis (Studi Kasus: Igracias It Telkom Surabaya)</t>
+  </si>
+  <si>
+    <t>Minat Perilaku Penggunaan E – Wallet Menggunakan Metode Pendekatan Technology Acceptance Model (Tam) Pada Mahasiswa It Telkom Surabaya</t>
+  </si>
+  <si>
+    <t>Analisis Tingkat Kepuasan Pengguna E- Commerce Shopee Di Surabaya Pada Sistem E-Payment Spaylater Menggunakan Delone &amp; Mclean</t>
+  </si>
+  <si>
+    <t>Rancang Bangun Aplikasi Pembelajaran Interaktif Berbasis Progressive Web Application Untuk Mendukung Pembelajaran Bahasa Pemrograman (Studi Kasus Ukm Cycology It Telkom Surabaya)</t>
+  </si>
+  <si>
+    <t>Analisis Kualitas Layanan Konsumen Berdasarkan Metode Servqual Dan Ahp (Analytical Hierarchy Process) Study Kasus : Bus Suroboyo Dan Bus Trans Semanggi Suroboyo</t>
+  </si>
+  <si>
+    <t>Analisis Kepuasan Penggunaan Website E-Learning Menggunakan Metode Servqual Dan Topsis Studi Kasus: Institut Teknologi Telkom Surabaya</t>
+  </si>
+  <si>
+    <t>Penerapan The Five Planes Dalam Perancangan Sistem Informasi Berbasis Website Bagi Forum Komunikasi Astronomi Lintas Jawa Timur (Fokalis Jatim) Dengan Menggunakan Metode Waterfall</t>
+  </si>
+  <si>
+    <t>Evaluasi Kualitas Sistem Pembelajaran Online Menggunakan Iso/Iec 25010 (Studi Kasus: E-Learning Ittelkom Surabaya)</t>
+  </si>
+  <si>
+    <t>Rancang Bangun E-Katalog Berbasis Progressive Web App Untuk Pengembangan Sistem Informasi Electronic Library Ittelkom Surabaya</t>
+  </si>
+  <si>
+    <t>Implementasi Ar Sebagai Media Pembelajaran Interaktif Pada Mata Kuliah Aorkom Di It Telkom Surabaya</t>
+  </si>
+  <si>
+    <t>Perancangan Dan Implementasi Dashboard Monitoring It Telkom Surabaya Berdasarkan Standar Akreditasi Perguruan Tinggi Ban-Pt</t>
+  </si>
+  <si>
+    <t>Desain Dan Implementasi Virtual Reality Berbasis 3d Sebagai Media Informasi Fasilitas Kampus Di Institut Teknologi Telkom Surabaya</t>
+  </si>
+  <si>
+    <t>Analisis Manajemen Risiko Ti Di Institut Teknologi Telkom Surabaya Menggunakan Iso 31000:2018</t>
+  </si>
+  <si>
+    <t>Penerapan Arsitektur Sistem Informasi Pada Pt. Telkom Indonesia, Tbk. Kandatel Banyuwangi Dengan Menggunakan Pendekatan Togaf Adm</t>
+  </si>
+  <si>
+    <t>Analisis Kepuasan Pengguna “Xgracias” Menggunakan Metode Heuristic Evaluation Dan Quality Function Deployment Terhadap Mahasiswa It Telkom Surabaya</t>
+  </si>
+  <si>
+    <t>Implementasi Tata Kelola Manajemen Layanan Teknologi Informasi Menggunakan Standar Iso 20000:1 2018. Studi Kasus: E-Learning Ittelkom Surabaya</t>
+  </si>
+  <si>
+    <t>Efektivitas Penggunaan Servqual Dan Metode Kano Pada Analisis Kepuasan Pelanggan Pada Pada Bisnis Online Thrift Store (Studi Kasus: Vacio Store)</t>
+  </si>
+  <si>
+    <t>Rancang Bangun Modul Tebang Muat Angkut Pt. Perkebunan Nusantara Xii Pada Aplikasi One Stop Solution For Planters (Oss Planters) Berbasis Android Menggunakan Metode Scrum</t>
+  </si>
+  <si>
+    <t>Evaluasi Peningkatan Layanan Igracias Menggunakan  Framework Itil V3 Domain Service Design</t>
+  </si>
+  <si>
+    <t>Analisis Kepuasan Pengguna Aplikasi Mobile E-Learning Dengan Metode Technology Acceptance Model (Tam) (Studi Kasus Pada Jurusan Sistem Informasi Institut Teknologi Telkom Surabaya)</t>
+  </si>
+  <si>
+    <t>Rancang Bangun Aplikasi Marketplace Berbasis Web Studi Kasus Pada Pengerajin Kulit Di Desa Tanggulangin Sidoarjo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analisis Implementasi Protokol AJAX Dan Websocket Dalam Pengembangan Web Ecommerce </t>
+  </si>
+  <si>
+    <t>Rancang Bangun Sistem Informasi Data Anggota UMKM pada Rumah BUMN Tabanan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistem Informasi Manajemen Pengelolaan Keuangan Pada Kafe Artomorrow </t>
+  </si>
+  <si>
+    <t>Pengujian Kepuasan Sistem Informasi Akademik Menggunakan Metode End-User Satisfaction Studi Kasus Igracias It Telkom Surabaya</t>
+  </si>
+  <si>
+    <t>Analisis Pelayanan Pt.Telkom Indonesia Cabang Banyuwangi Kepada Konsumen Kota Banyuwangi (Study Case Indihome)</t>
+  </si>
+  <si>
+    <t>Rancang Bangun Dashboard Analisa Penjualan Indihome Datel Tabanan</t>
+  </si>
+  <si>
+    <t>Sistem Informasi Pengolahan Data Nilai Siswa Berbasis Web Pada Sekolah Menengah Atas (Sma) Giki 1 Surabaya</t>
+  </si>
+  <si>
+    <t>Analisis Critical Success Factor Terhadap Kesuksesan Implementasi Erp Dengan Metode Fuzzy Analytical Hierarchy Process (F-Ahp)</t>
+  </si>
+  <si>
+    <t>bayuaji@student.ittelkom-sby.ac.id</t>
+  </si>
+  <si>
+    <t>geraldohiroshi186@student.ittelkom-sby.ac.id</t>
+  </si>
+  <si>
+    <t>semwanadri@gmail.com</t>
+  </si>
+  <si>
+    <t>helloboo0308@gmail.com</t>
+  </si>
+  <si>
+    <t>luqmannaufal80@gmail.com</t>
+  </si>
+  <si>
+    <t>tanfirulroy@student.ittelkom-sby.ac.id</t>
+  </si>
+  <si>
+    <t>davapranata9c@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,6 +539,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -407,11 +565,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -472,8 +631,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{537DF2B6-8DC9-407A-96F2-63EEF378639F}"/>
   </cellStyles>
@@ -791,22 +961,22 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.7265625" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="61" customWidth="1"/>
     <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" customWidth="1"/>
-    <col min="9" max="9" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -835,7 +1005,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="7" customFormat="1" ht="50" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" s="7" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1204181023</v>
       </c>
@@ -861,7 +1031,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="7" customFormat="1" ht="50" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="7" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1204181014</v>
       </c>
@@ -898,25 +1068,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4581FFC7-B881-4499-AE83-3025939247E8}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.453125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.26953125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.21875" style="4" customWidth="1"/>
     <col min="5" max="6" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" style="4"/>
-    <col min="9" max="9" width="11.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="4"/>
+    <col min="8" max="8" width="8.77734375" style="4"/>
+    <col min="9" max="9" width="11.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.77734375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -945,7 +1115,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="11" customFormat="1" ht="50" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" s="11" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1204180002</v>
       </c>
@@ -955,6 +1125,9 @@
       <c r="C2" s="13">
         <v>44593</v>
       </c>
+      <c r="D2" s="22" t="s">
+        <v>128</v>
+      </c>
       <c r="E2" s="11" t="s">
         <v>76</v>
       </c>
@@ -968,7 +1141,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="11" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>1204180003</v>
       </c>
@@ -978,6 +1151,9 @@
       <c r="C3" s="13">
         <v>44593</v>
       </c>
+      <c r="D3" s="21" t="s">
+        <v>136</v>
+      </c>
       <c r="E3" s="12" t="s">
         <v>77</v>
       </c>
@@ -987,8 +1163,11 @@
       <c r="G3" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H3" s="24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>1204180006</v>
       </c>
@@ -1007,8 +1186,9 @@
       <c r="G4" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:9" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>1204180007</v>
       </c>
@@ -1030,8 +1210,9 @@
       <c r="G5" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>1204180009</v>
       </c>
@@ -1051,7 +1232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>1204180013</v>
       </c>
@@ -1071,7 +1252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>1204180016</v>
       </c>
@@ -1091,7 +1272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>1204180024</v>
       </c>
@@ -1114,7 +1295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" s="11" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>1204180026</v>
       </c>
@@ -1124,6 +1305,9 @@
       <c r="C10" s="13">
         <v>44593</v>
       </c>
+      <c r="D10" s="21" t="s">
+        <v>132</v>
+      </c>
       <c r="E10" s="11" t="s">
         <v>83</v>
       </c>
@@ -1133,8 +1317,11 @@
       <c r="G10" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H10" s="24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>1204180027</v>
       </c>
@@ -1154,7 +1341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" s="11" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>1204180029</v>
       </c>
@@ -1164,6 +1351,9 @@
       <c r="C12" s="13">
         <v>44593</v>
       </c>
+      <c r="D12" s="21" t="s">
+        <v>133</v>
+      </c>
       <c r="E12" s="11" t="s">
         <v>82</v>
       </c>
@@ -1173,8 +1363,11 @@
       <c r="G12" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="H12" s="24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>1204180031</v>
       </c>
@@ -1196,8 +1389,9 @@
       <c r="G13" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H13" s="24"/>
+    </row>
+    <row r="14" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>1204181004</v>
       </c>
@@ -1217,7 +1411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" s="11" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>1204181008</v>
       </c>
@@ -1227,6 +1421,9 @@
       <c r="C15" s="13">
         <v>44593</v>
       </c>
+      <c r="D15" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="E15" s="11" t="s">
         <v>76</v>
       </c>
@@ -1236,8 +1433,11 @@
       <c r="G15" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" s="11" customFormat="1" ht="50" x14ac:dyDescent="0.35">
+      <c r="H15" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="11" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>1204181011</v>
       </c>
@@ -1247,6 +1447,9 @@
       <c r="C16" s="13">
         <v>44593</v>
       </c>
+      <c r="D16" s="22" t="s">
+        <v>129</v>
+      </c>
       <c r="E16" s="11" t="s">
         <v>76</v>
       </c>
@@ -1260,7 +1463,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>1204181021</v>
       </c>
@@ -1280,7 +1483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>1204181028</v>
       </c>
@@ -1300,7 +1503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>1204183030</v>
       </c>
@@ -1320,7 +1523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>1204180005</v>
       </c>
@@ -1334,21 +1537,27 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>1204180015</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="D21" s="23" t="s">
+        <v>131</v>
+      </c>
       <c r="E21" s="11" t="s">
         <v>83</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H21" s="25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>1204180017</v>
       </c>
@@ -1361,36 +1570,49 @@
       <c r="F22" s="11" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H22" s="24"/>
+    </row>
+    <row r="23" spans="1:8" s="11" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>1204180018</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>26</v>
       </c>
+      <c r="D23" s="21" t="s">
+        <v>135</v>
+      </c>
       <c r="E23" s="11" t="s">
         <v>76</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H23" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="11" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>1204180019</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>27</v>
       </c>
+      <c r="D24" s="22" t="s">
+        <v>130</v>
+      </c>
       <c r="E24" s="11" t="s">
         <v>83</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H24" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>1204180020</v>
       </c>
@@ -1414,24 +1636,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C966F923-3B2B-4299-B621-1C0A34313445}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.90625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.88671875" style="16" customWidth="1"/>
     <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1460,7 +1682,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>1204199045</v>
       </c>
@@ -1481,7 +1703,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>1204190066</v>
       </c>
@@ -1502,7 +1724,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>1204199039</v>
       </c>
@@ -1523,7 +1745,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>1204190051</v>
       </c>
@@ -1533,7 +1755,9 @@
       <c r="C5" s="20">
         <v>44743</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="21" t="s">
+        <v>95</v>
+      </c>
       <c r="E5" s="12" t="s">
         <v>84</v>
       </c>
@@ -1542,7 +1766,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>1204190018</v>
       </c>
@@ -1552,7 +1776,9 @@
       <c r="C6" s="20">
         <v>44743</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="21" t="s">
+        <v>96</v>
+      </c>
       <c r="E6" s="12" t="s">
         <v>83</v>
       </c>
@@ -1561,7 +1787,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>1204190050</v>
       </c>
@@ -1571,7 +1797,9 @@
       <c r="C7" s="20">
         <v>44743</v>
       </c>
-      <c r="D7" s="19"/>
+      <c r="D7" s="21" t="s">
+        <v>97</v>
+      </c>
       <c r="E7" s="12" t="s">
         <v>83</v>
       </c>
@@ -1580,7 +1808,7 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>1204190057</v>
       </c>
@@ -1590,7 +1818,9 @@
       <c r="C8" s="20">
         <v>44743</v>
       </c>
-      <c r="D8" s="19"/>
+      <c r="D8" s="21" t="s">
+        <v>98</v>
+      </c>
       <c r="E8" s="12" t="s">
         <v>83</v>
       </c>
@@ -1599,7 +1829,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>1204192062</v>
       </c>
@@ -1609,7 +1839,9 @@
       <c r="C9" s="20">
         <v>44743</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="21" t="s">
+        <v>99</v>
+      </c>
       <c r="E9" s="12" t="s">
         <v>84</v>
       </c>
@@ -1618,7 +1850,7 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>1204190002</v>
       </c>
@@ -1628,7 +1860,9 @@
       <c r="C10" s="20">
         <v>44743</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="21" t="s">
+        <v>100</v>
+      </c>
       <c r="E10" s="12" t="s">
         <v>76</v>
       </c>
@@ -1637,7 +1871,7 @@
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>1204192013</v>
       </c>
@@ -1647,7 +1881,9 @@
       <c r="C11" s="20">
         <v>44743</v>
       </c>
-      <c r="D11" s="19"/>
+      <c r="D11" s="21" t="s">
+        <v>101</v>
+      </c>
       <c r="E11" s="12" t="s">
         <v>79</v>
       </c>
@@ -1656,7 +1892,7 @@
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>1204199007</v>
       </c>
@@ -1666,7 +1902,9 @@
       <c r="C12" s="20">
         <v>44743</v>
       </c>
-      <c r="D12" s="19"/>
+      <c r="D12" s="21" t="s">
+        <v>102</v>
+      </c>
       <c r="E12" s="12" t="s">
         <v>84</v>
       </c>
@@ -1675,7 +1913,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>1204199001</v>
       </c>
@@ -1685,7 +1923,9 @@
       <c r="C13" s="20">
         <v>44743</v>
       </c>
-      <c r="D13" s="19"/>
+      <c r="D13" s="21" t="s">
+        <v>103</v>
+      </c>
       <c r="E13" s="12" t="s">
         <v>77</v>
       </c>
@@ -1694,7 +1934,7 @@
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>1204190067</v>
       </c>
@@ -1704,7 +1944,9 @@
       <c r="C14" s="20">
         <v>44743</v>
       </c>
-      <c r="D14" s="19"/>
+      <c r="D14" s="21" t="s">
+        <v>104</v>
+      </c>
       <c r="E14" s="12" t="s">
         <v>83</v>
       </c>
@@ -1713,7 +1955,7 @@
       </c>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>1204190006</v>
       </c>
@@ -1723,7 +1965,9 @@
       <c r="C15" s="20">
         <v>44743</v>
       </c>
-      <c r="D15" s="19"/>
+      <c r="D15" s="21" t="s">
+        <v>105</v>
+      </c>
       <c r="E15" s="12" t="s">
         <v>76</v>
       </c>
@@ -1732,7 +1976,7 @@
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>1204190046</v>
       </c>
@@ -1742,7 +1986,9 @@
       <c r="C16" s="20">
         <v>44743</v>
       </c>
-      <c r="D16" s="19"/>
+      <c r="D16" s="21" t="s">
+        <v>106</v>
+      </c>
       <c r="E16" s="12" t="s">
         <v>79</v>
       </c>
@@ -1751,7 +1997,7 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>1204190021</v>
       </c>
@@ -1761,7 +2007,9 @@
       <c r="C17" s="20">
         <v>44743</v>
       </c>
-      <c r="D17" s="19"/>
+      <c r="D17" s="21" t="s">
+        <v>107</v>
+      </c>
       <c r="E17" s="12" t="s">
         <v>83</v>
       </c>
@@ -1770,7 +2018,7 @@
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>1204190014</v>
       </c>
@@ -1780,7 +2028,9 @@
       <c r="C18" s="20">
         <v>44743</v>
       </c>
-      <c r="D18" s="19"/>
+      <c r="D18" s="21" t="s">
+        <v>108</v>
+      </c>
       <c r="E18" s="12" t="s">
         <v>84</v>
       </c>
@@ -1789,7 +2039,7 @@
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>1204190032</v>
       </c>
@@ -1799,7 +2049,9 @@
       <c r="C19" s="20">
         <v>44743</v>
       </c>
-      <c r="D19" s="19"/>
+      <c r="D19" s="21" t="s">
+        <v>109</v>
+      </c>
       <c r="E19" s="12" t="s">
         <v>84</v>
       </c>
@@ -1808,7 +2060,7 @@
       </c>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>1204190037</v>
       </c>
@@ -1818,7 +2070,9 @@
       <c r="C20" s="20">
         <v>44743</v>
       </c>
-      <c r="D20" s="19"/>
+      <c r="D20" s="21" t="s">
+        <v>110</v>
+      </c>
       <c r="E20" s="12" t="s">
         <v>82</v>
       </c>
@@ -1827,7 +2081,7 @@
       </c>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>1204190010</v>
       </c>
@@ -1837,7 +2091,9 @@
       <c r="C21" s="20">
         <v>44743</v>
       </c>
-      <c r="D21" s="19"/>
+      <c r="D21" s="21" t="s">
+        <v>111</v>
+      </c>
       <c r="E21" s="12" t="s">
         <v>76</v>
       </c>
@@ -1846,7 +2102,7 @@
       </c>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>1204190015</v>
       </c>
@@ -1856,7 +2112,9 @@
       <c r="C22" s="20">
         <v>44743</v>
       </c>
-      <c r="D22" s="19"/>
+      <c r="D22" s="21" t="s">
+        <v>112</v>
+      </c>
       <c r="E22" s="12" t="s">
         <v>77</v>
       </c>
@@ -1865,7 +2123,7 @@
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>1204190029</v>
       </c>
@@ -1875,7 +2133,9 @@
       <c r="C23" s="20">
         <v>44743</v>
       </c>
-      <c r="D23" s="19"/>
+      <c r="D23" s="21" t="s">
+        <v>113</v>
+      </c>
       <c r="E23" s="12" t="s">
         <v>77</v>
       </c>
@@ -1884,7 +2144,7 @@
       </c>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>1204190058</v>
       </c>
@@ -1894,7 +2154,9 @@
       <c r="C24" s="20">
         <v>44743</v>
       </c>
-      <c r="D24" s="19"/>
+      <c r="D24" s="21" t="s">
+        <v>114</v>
+      </c>
       <c r="E24" s="12" t="s">
         <v>79</v>
       </c>
@@ -1903,7 +2165,7 @@
       </c>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>1204190069</v>
       </c>
@@ -1913,7 +2175,9 @@
       <c r="C25" s="20">
         <v>44743</v>
       </c>
-      <c r="D25" s="19"/>
+      <c r="D25" s="21" t="s">
+        <v>115</v>
+      </c>
       <c r="E25" s="12" t="s">
         <v>76</v>
       </c>
@@ -1922,7 +2186,7 @@
       </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>1204199043</v>
       </c>
@@ -1932,7 +2196,9 @@
       <c r="C26" s="20">
         <v>44743</v>
       </c>
-      <c r="D26" s="19"/>
+      <c r="D26" s="21" t="s">
+        <v>116</v>
+      </c>
       <c r="E26" s="12" t="s">
         <v>79</v>
       </c>
@@ -1941,7 +2207,7 @@
       </c>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>1204190049</v>
       </c>
@@ -1951,7 +2217,9 @@
       <c r="C27" s="20">
         <v>44743</v>
       </c>
-      <c r="D27" s="19"/>
+      <c r="D27" s="21" t="s">
+        <v>117</v>
+      </c>
       <c r="E27" s="12" t="s">
         <v>83</v>
       </c>
@@ -1960,7 +2228,7 @@
       </c>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>1204190060</v>
       </c>
@@ -1970,7 +2238,9 @@
       <c r="C28" s="20">
         <v>44743</v>
       </c>
-      <c r="D28" s="19"/>
+      <c r="D28" s="21" t="s">
+        <v>118</v>
+      </c>
       <c r="E28" s="12" t="s">
         <v>79</v>
       </c>
@@ -1979,7 +2249,7 @@
       </c>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>1204190073</v>
       </c>
@@ -1989,7 +2259,9 @@
       <c r="C29" s="20">
         <v>44743</v>
       </c>
-      <c r="D29" s="19"/>
+      <c r="D29" s="21" t="s">
+        <v>119</v>
+      </c>
       <c r="E29" s="12" t="s">
         <v>83</v>
       </c>
@@ -1998,7 +2270,7 @@
       </c>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>1204190012</v>
       </c>
@@ -2008,7 +2280,9 @@
       <c r="C30" s="20">
         <v>44743</v>
       </c>
-      <c r="D30" s="19"/>
+      <c r="D30" s="21" t="s">
+        <v>120</v>
+      </c>
       <c r="E30" s="12" t="s">
         <v>76</v>
       </c>
@@ -2017,7 +2291,7 @@
       </c>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>1204192020</v>
       </c>
@@ -2027,7 +2301,9 @@
       <c r="C31" s="20">
         <v>44743</v>
       </c>
-      <c r="D31" s="19"/>
+      <c r="D31" s="21" t="s">
+        <v>121</v>
+      </c>
       <c r="E31" s="12" t="s">
         <v>76</v>
       </c>
@@ -2036,7 +2312,7 @@
       </c>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>1204190042</v>
       </c>
@@ -2046,7 +2322,9 @@
       <c r="C32" s="20">
         <v>44743</v>
       </c>
-      <c r="D32" s="19"/>
+      <c r="D32" s="21" t="s">
+        <v>122</v>
+      </c>
       <c r="E32" s="12" t="s">
         <v>77</v>
       </c>
@@ -2055,7 +2333,7 @@
       </c>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>1204190011</v>
       </c>
@@ -2065,7 +2343,9 @@
       <c r="C33" s="20">
         <v>44743</v>
       </c>
-      <c r="D33" s="19"/>
+      <c r="D33" s="21" t="s">
+        <v>123</v>
+      </c>
       <c r="E33" s="12" t="s">
         <v>76</v>
       </c>
@@ -2074,7 +2354,7 @@
       </c>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>1204199061</v>
       </c>
@@ -2084,7 +2364,9 @@
       <c r="C34" s="20">
         <v>44743</v>
       </c>
-      <c r="D34" s="19"/>
+      <c r="D34" s="21" t="s">
+        <v>124</v>
+      </c>
       <c r="E34" s="12" t="s">
         <v>77</v>
       </c>
@@ -2093,7 +2375,7 @@
       </c>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>1204192030</v>
       </c>
@@ -2103,7 +2385,9 @@
       <c r="C35" s="20">
         <v>44743</v>
       </c>
-      <c r="D35" s="19"/>
+      <c r="D35" s="21" t="s">
+        <v>125</v>
+      </c>
       <c r="E35" s="12" t="s">
         <v>76</v>
       </c>
@@ -2112,7 +2396,7 @@
       </c>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
         <v>1204190017</v>
       </c>
@@ -2122,7 +2406,9 @@
       <c r="C36" s="20">
         <v>44743</v>
       </c>
-      <c r="D36" s="19"/>
+      <c r="D36" s="21" t="s">
+        <v>126</v>
+      </c>
       <c r="E36" s="12" t="s">
         <v>84</v>
       </c>
@@ -2131,7 +2417,7 @@
       </c>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
         <v>1204190063</v>
       </c>
@@ -2141,7 +2427,9 @@
       <c r="C37" s="20">
         <v>44743</v>
       </c>
-      <c r="D37" s="19"/>
+      <c r="D37" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="E37" s="12" t="s">
         <v>79</v>
       </c>
@@ -2163,24 +2451,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CC19EE-8F0D-4BC1-80CB-7F34D94B7007}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.90625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.88671875" style="16" customWidth="1"/>
     <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2209,7 +2497,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="15"/>
@@ -2218,7 +2506,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="15"/>
@@ -2227,7 +2515,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="15"/>
@@ -2236,7 +2524,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="15"/>
@@ -2245,7 +2533,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="15"/>
@@ -2254,7 +2542,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="15"/>
@@ -2263,7 +2551,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="15"/>
@@ -2272,7 +2560,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="15"/>
@@ -2281,7 +2569,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="15"/>
@@ -2290,7 +2578,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="15"/>
@@ -2299,7 +2587,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="15"/>
@@ -2308,7 +2596,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="15"/>
@@ -2317,7 +2605,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="15"/>
@@ -2326,7 +2614,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="15"/>
@@ -2335,7 +2623,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="15"/>
@@ -2344,7 +2632,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="15"/>
@@ -2353,7 +2641,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="15"/>
@@ -2362,7 +2650,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="15"/>
@@ -2371,7 +2659,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="15"/>
@@ -2380,7 +2668,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="15"/>
@@ -2389,7 +2677,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="15"/>
@@ -2398,7 +2686,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="15"/>
@@ -2407,7 +2695,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="15"/>
@@ -2416,7 +2704,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="15"/>
@@ -2425,7 +2713,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="15"/>
@@ -2434,7 +2722,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="15"/>
@@ -2443,7 +2731,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="15"/>
@@ -2452,7 +2740,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="15"/>
@@ -2461,7 +2749,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="15"/>
@@ -2470,7 +2758,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="15"/>
@@ -2479,7 +2767,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="15"/>
@@ -2488,7 +2776,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="15"/>
@@ -2497,7 +2785,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="15"/>
@@ -2506,7 +2794,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="15"/>
@@ -2515,7 +2803,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="15"/>
@@ -2524,7 +2812,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="15"/>

--- a/master data mahasiswa TA.xlsx
+++ b/master data mahasiswa TA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kampus\HLP\simta\sim-ta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfbee3ff0ebd21f1/simta application/simta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475FD592-FCDF-419D-9937-D1DDEE3C4309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{475FD592-FCDF-419D-9937-D1DDEE3C4309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1445CB16-E106-41A4-BAD1-5C03DC9F793F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{9D7D56C9-3BFC-42AD-8CDB-4B7184614D5D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9D7D56C9-3BFC-42AD-8CDB-4B7184614D5D}"/>
   </bookViews>
   <sheets>
     <sheet name="gjl 21.22" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="gjl 22.23" sheetId="7" r:id="rId3"/>
     <sheet name="gnp 22.23" sheetId="10" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,12 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="152">
   <si>
     <t>nim</t>
   </si>
@@ -332,30 +329,18 @@
     <t>Evaluasi User Experience Dan Pemodelan Ulang User Interface Pada Aplikasi Xgracias Menggunakan Metode Design Thinking Dan Maze Usability Testing</t>
   </si>
   <si>
-    <t>Analisis Dan Evaluasi Perancangan Prototype Ui Ux Pada Website Electronic Library It Telkom Surabaya Menggunakan Metode User Centered Design</t>
-  </si>
-  <si>
     <t>Rancang Bangun Aplikasi Reporting Postingan Berita Dan Media Sosial Berbasis Web Pada Institut Teknologi  Telkom Surabaya</t>
   </si>
   <si>
-    <t>Evaluasi Kualitas Layanan Website Dinas Kebudayaan Dan Pariwisata Provinsi Jawa Timur Dengan Metode E-Govqual, Human Organization ( Hot ) Fit Dan Kano Model</t>
-  </si>
-  <si>
     <t>Perancangan Business Continuity Plan Pada Pengembangan Sistem Puti (Pusat Teknologi Informasi) Di Institut Teknologi Telkom Surabaya</t>
   </si>
   <si>
     <t>Penerapan Algoritma C4.5 Untuk Memprediksi Kelulusan Mahasiswa S1 Di Ittelkom Surabaya (Studi Kasus: Prodi Sistem Informasi)</t>
   </si>
   <si>
-    <t>Analisis Manajemen Risiko Keamanan Informasi Pada Website Akademik Xyz Menggunakan Metode Octave Allegro</t>
-  </si>
-  <si>
     <t>Evaluasi Kepuasan Mahasiswa Terhadap Hybrid Learning Menggunakan Metode Hot Fit Model Studi Kasus It Telkom Surabaya</t>
   </si>
   <si>
-    <t>Redesain Website Satuan Penjaminan Mutu Dan Perencanaan (Spm) Ittelkom Surabaya Dengan Menggunakan Metode User Centered Design (Ucd)</t>
-  </si>
-  <si>
     <t>Pengukuran Tingkat Kematangan Pada Pusat Teknologi Informasi (Puti) Institut Teknologi Telkom Surabaya Menggunakan Framework Cobit 2019 Domain Deliver, Service, And Support (Dss)</t>
   </si>
   <si>
@@ -471,6 +456,44 @@
   </si>
   <si>
     <t>davapranata9c@gmail.com</t>
+  </si>
+  <si>
+    <t>Redesain Website Satuan Penjaminan Mutu Dan Perencanaan (SPM) Ittelkom Surabaya Dengan Menggunakan Metode User Centered Design (UCD)</t>
+  </si>
+  <si>
+    <t>Analisis Manajemen Risiko Keamanan Informasi Pada Website Akademik XYZ Menggunakan Metode Octave Allegro</t>
+  </si>
+  <si>
+    <t>Evaluasi Kualitas Layanan Website Dinas Kebudayaan Dan Pariwisata Provinsi Jawa Timur Dengan Metode E-Govqual, Human Organization (Hot) Fit Dan Kano Model</t>
+  </si>
+  <si>
+    <t>Analisis Dan Evaluasi Perancangan Prototype UI/UX Pada Website Electronic Library IT Telkom Surabaya Menggunakan Metode User Centered Design</t>
+  </si>
+  <si>
+    <t>Analisis Unified Theory Of Acceptance And Use of Technology (UTAUT) Terhadap Penerimaan Adopsi Teknologi E-Learning di Kalangan Mahasiswa Pada Kampus Baru (Studi Kasus : It Telkom Surabaya)</t>
+  </si>
+  <si>
+    <t>Analisis Kesiapan UMKM dalam Mengadopsi Electronic Supply Chain Management (E-SCM) Melalui Kolaborasi Technology Acceptance Model (TAM) di Surabaya dan Sidoarjo</t>
+  </si>
+  <si>
+    <t>Analisis Faktor Penerimaan Masyarakat Terhadap Fitur Pedulilindungi Pada Aplikasi Mitra Dalam Penanganan Kasus Covid-19</t>
+  </si>
+  <si>
+    <t>Analisis Sistem Informasi Akuntansi Sebagai Tata Kelola Keuangan Untuk Mewujudkan Smart City Pada Pemerintahan (Studi Kasus Dinas Komunikasi Dan Informatika Provinsi Jawa Timur)</t>
+  </si>
+  <si>
+    <t>Sistem Pendukung Keputusan Pemilihan Vendor Dengan Menggunakan Metode Simple Additive Weighting (SAW) Pada PT. 
+Dayamitra Telekomunikasi Tbk</t>
+  </si>
+  <si>
+    <t>Analisis Penerimaan Sistem Pembayaran Shopeepay Menggunakan Technology Acceptance Model Terhadap Minat Beli 
+Pengguna Shopee</t>
+  </si>
+  <si>
+    <t>Penerapan Model UTAUT Untuk Memahami Niat Menggunakan Instagram Marketing Pada Pelaku UMKM Kota Jombang</t>
+  </si>
+  <si>
+    <t>Analisis Manajemen Risiko IT di Organisasi XYZ Berdasarkan ISO 31000:2018</t>
   </si>
 </sst>
 </file>
@@ -964,19 +987,19 @@
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.81640625" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="61" customWidth="1"/>
     <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1005,7 +1028,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="7" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="7" customFormat="1" ht="50" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>1204181023</v>
       </c>
@@ -1031,7 +1054,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="7" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="7" customFormat="1" ht="50" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>1204181014</v>
       </c>
@@ -1068,25 +1091,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4581FFC7-B881-4499-AE83-3025939247E8}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.21875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.453125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.1796875" style="4" customWidth="1"/>
     <col min="5" max="6" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.77734375" style="4"/>
-    <col min="9" max="9" width="11.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.77734375" style="4"/>
+    <col min="8" max="8" width="8.81640625" style="4"/>
+    <col min="9" max="9" width="11.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1115,7 +1138,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="11" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="11" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11">
         <v>1204180002</v>
       </c>
@@ -1126,7 +1149,7 @@
         <v>44593</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>76</v>
@@ -1141,7 +1164,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>1204180003</v>
       </c>
@@ -1152,7 +1175,7 @@
         <v>44593</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>77</v>
@@ -1164,10 +1187,10 @@
         <v>3</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>1204180006</v>
       </c>
@@ -1177,6 +1200,9 @@
       <c r="C4" s="13">
         <v>44593</v>
       </c>
+      <c r="D4" s="14" t="s">
+        <v>145</v>
+      </c>
       <c r="E4" s="11" t="s">
         <v>77</v>
       </c>
@@ -1188,7 +1214,7 @@
       </c>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:9" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>1204180007</v>
       </c>
@@ -1212,7 +1238,7 @@
       </c>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>1204180009</v>
       </c>
@@ -1222,6 +1248,9 @@
       <c r="C6" s="13">
         <v>44593</v>
       </c>
+      <c r="D6" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="E6" s="11" t="s">
         <v>82</v>
       </c>
@@ -1232,7 +1261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>1204180013</v>
       </c>
@@ -1242,6 +1271,9 @@
       <c r="C7" s="13">
         <v>44593</v>
       </c>
+      <c r="D7" s="14" t="s">
+        <v>148</v>
+      </c>
       <c r="E7" s="11" t="s">
         <v>77</v>
       </c>
@@ -1252,7 +1284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>1204180016</v>
       </c>
@@ -1272,7 +1304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>1204180024</v>
       </c>
@@ -1295,7 +1327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="11" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="11" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>1204180026</v>
       </c>
@@ -1306,7 +1338,7 @@
         <v>44593</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>83</v>
@@ -1318,10 +1350,10 @@
         <v>3</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>1204180027</v>
       </c>
@@ -1331,6 +1363,9 @@
       <c r="C11" s="13">
         <v>44593</v>
       </c>
+      <c r="D11" s="14" t="s">
+        <v>147</v>
+      </c>
       <c r="E11" s="11" t="s">
         <v>83</v>
       </c>
@@ -1341,7 +1376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="11" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>1204180029</v>
       </c>
@@ -1352,7 +1387,7 @@
         <v>44593</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>82</v>
@@ -1364,10 +1399,10 @@
         <v>3</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>1204180031</v>
       </c>
@@ -1391,7 +1426,7 @@
       </c>
       <c r="H13" s="24"/>
     </row>
-    <row r="14" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>1204181004</v>
       </c>
@@ -1401,6 +1436,9 @@
       <c r="C14" s="13">
         <v>44593</v>
       </c>
+      <c r="D14" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="E14" s="11" t="s">
         <v>77</v>
       </c>
@@ -1411,7 +1449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="11" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="11" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>1204181008</v>
       </c>
@@ -1422,7 +1460,7 @@
         <v>44593</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>76</v>
@@ -1434,10 +1472,10 @@
         <v>3</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="11" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>1204181011</v>
       </c>
@@ -1448,7 +1486,7 @@
         <v>44593</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>76</v>
@@ -1463,7 +1501,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="11" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>1204181021</v>
       </c>
@@ -1473,6 +1511,9 @@
       <c r="C17" s="13">
         <v>44593</v>
       </c>
+      <c r="D17" s="14" t="s">
+        <v>149</v>
+      </c>
       <c r="E17" s="11" t="s">
         <v>76</v>
       </c>
@@ -1483,7 +1524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>1204181028</v>
       </c>
@@ -1493,6 +1534,9 @@
       <c r="C18" s="13">
         <v>44593</v>
       </c>
+      <c r="D18" s="14" t="s">
+        <v>150</v>
+      </c>
       <c r="E18" s="11" t="s">
         <v>77</v>
       </c>
@@ -1503,7 +1547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="11" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>1204183030</v>
       </c>
@@ -1513,6 +1557,9 @@
       <c r="C19" s="13">
         <v>44593</v>
       </c>
+      <c r="D19" s="14" t="s">
+        <v>151</v>
+      </c>
       <c r="E19" s="11" t="s">
         <v>76</v>
       </c>
@@ -1523,13 +1570,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>1204180005</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>23</v>
       </c>
+      <c r="C20" s="13"/>
       <c r="E20" s="11" t="s">
         <v>83</v>
       </c>
@@ -1537,15 +1585,18 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="11" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>1204180015</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="C21" s="13">
+        <v>44593</v>
+      </c>
       <c r="D21" s="23" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>83</v>
@@ -1554,16 +1605,17 @@
         <v>78</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>1204180017</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>25</v>
       </c>
+      <c r="C22" s="13"/>
       <c r="E22" s="11" t="s">
         <v>82</v>
       </c>
@@ -1572,15 +1624,18 @@
       </c>
       <c r="H22" s="24"/>
     </row>
-    <row r="23" spans="1:8" s="11" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>1204180018</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>26</v>
       </c>
+      <c r="C23" s="13">
+        <v>44593</v>
+      </c>
       <c r="D23" s="21" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>76</v>
@@ -1589,18 +1644,21 @@
         <v>79</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="11" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="11" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>1204180019</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>27</v>
       </c>
+      <c r="C24" s="13">
+        <v>44593</v>
+      </c>
       <c r="D24" s="22" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>83</v>
@@ -1609,10 +1667,10 @@
         <v>80</v>
       </c>
       <c r="H24" s="24" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
         <v>1204180020</v>
       </c>
@@ -1636,24 +1694,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C966F923-3B2B-4299-B621-1C0A34313445}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.21875" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.88671875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.90625" style="16" customWidth="1"/>
     <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1682,7 +1740,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="50" x14ac:dyDescent="0.35">
       <c r="A2" s="12">
         <v>1204199045</v>
       </c>
@@ -1703,7 +1761,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>1204190066</v>
       </c>
@@ -1724,7 +1782,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>1204199039</v>
       </c>
@@ -1745,7 +1803,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>1204190051</v>
       </c>
@@ -1766,7 +1824,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>1204190018</v>
       </c>
@@ -1787,7 +1845,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>1204190050</v>
       </c>
@@ -1798,7 +1856,7 @@
         <v>44743</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>83</v>
@@ -1808,7 +1866,7 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>1204190057</v>
       </c>
@@ -1819,7 +1877,7 @@
         <v>44743</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>83</v>
@@ -1829,7 +1887,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>1204192062</v>
       </c>
@@ -1840,7 +1898,7 @@
         <v>44743</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>84</v>
@@ -1850,7 +1908,7 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>1204190002</v>
       </c>
@@ -1861,7 +1919,7 @@
         <v>44743</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>76</v>
@@ -1871,7 +1929,7 @@
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>1204192013</v>
       </c>
@@ -1882,7 +1940,7 @@
         <v>44743</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>79</v>
@@ -1892,7 +1950,7 @@
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>1204199007</v>
       </c>
@@ -1903,7 +1961,7 @@
         <v>44743</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>84</v>
@@ -1913,7 +1971,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>1204199001</v>
       </c>
@@ -1924,7 +1982,7 @@
         <v>44743</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>77</v>
@@ -1934,7 +1992,7 @@
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>1204190067</v>
       </c>
@@ -1945,7 +2003,7 @@
         <v>44743</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>83</v>
@@ -1955,7 +2013,7 @@
       </c>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>1204190006</v>
       </c>
@@ -1966,7 +2024,7 @@
         <v>44743</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>76</v>
@@ -1976,7 +2034,7 @@
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>1204190046</v>
       </c>
@@ -1987,7 +2045,7 @@
         <v>44743</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>79</v>
@@ -1997,7 +2055,7 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>1204190021</v>
       </c>
@@ -2008,7 +2066,7 @@
         <v>44743</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>83</v>
@@ -2018,7 +2076,7 @@
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>1204190014</v>
       </c>
@@ -2029,7 +2087,7 @@
         <v>44743</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>84</v>
@@ -2039,7 +2097,7 @@
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>1204190032</v>
       </c>
@@ -2050,7 +2108,7 @@
         <v>44743</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>84</v>
@@ -2060,7 +2118,7 @@
       </c>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>1204190037</v>
       </c>
@@ -2071,7 +2129,7 @@
         <v>44743</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>82</v>
@@ -2081,7 +2139,7 @@
       </c>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>1204190010</v>
       </c>
@@ -2092,7 +2150,7 @@
         <v>44743</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>76</v>
@@ -2102,7 +2160,7 @@
       </c>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>1204190015</v>
       </c>
@@ -2113,7 +2171,7 @@
         <v>44743</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>77</v>
@@ -2123,7 +2181,7 @@
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>1204190029</v>
       </c>
@@ -2134,7 +2192,7 @@
         <v>44743</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>77</v>
@@ -2144,7 +2202,7 @@
       </c>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>1204190058</v>
       </c>
@@ -2155,7 +2213,7 @@
         <v>44743</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>79</v>
@@ -2165,7 +2223,7 @@
       </c>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>1204190069</v>
       </c>
@@ -2176,7 +2234,7 @@
         <v>44743</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>76</v>
@@ -2186,7 +2244,7 @@
       </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>1204199043</v>
       </c>
@@ -2197,7 +2255,7 @@
         <v>44743</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>79</v>
@@ -2207,7 +2265,7 @@
       </c>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>1204190049</v>
       </c>
@@ -2218,7 +2276,7 @@
         <v>44743</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>83</v>
@@ -2228,7 +2286,7 @@
       </c>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>1204190060</v>
       </c>
@@ -2239,7 +2297,7 @@
         <v>44743</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>79</v>
@@ -2249,7 +2307,7 @@
       </c>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>1204190073</v>
       </c>
@@ -2260,7 +2318,7 @@
         <v>44743</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>83</v>
@@ -2270,7 +2328,7 @@
       </c>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>1204190012</v>
       </c>
@@ -2281,7 +2339,7 @@
         <v>44743</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>76</v>
@@ -2291,7 +2349,7 @@
       </c>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>1204192020</v>
       </c>
@@ -2302,7 +2360,7 @@
         <v>44743</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>76</v>
@@ -2312,7 +2370,7 @@
       </c>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <v>1204190042</v>
       </c>
@@ -2323,7 +2381,7 @@
         <v>44743</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>77</v>
@@ -2333,7 +2391,7 @@
       </c>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>1204190011</v>
       </c>
@@ -2344,7 +2402,7 @@
         <v>44743</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>76</v>
@@ -2354,7 +2412,7 @@
       </c>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A34" s="12">
         <v>1204199061</v>
       </c>
@@ -2365,7 +2423,7 @@
         <v>44743</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>77</v>
@@ -2375,7 +2433,7 @@
       </c>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
         <v>1204192030</v>
       </c>
@@ -2386,7 +2444,7 @@
         <v>44743</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>76</v>
@@ -2396,7 +2454,7 @@
       </c>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A36" s="12">
         <v>1204190017</v>
       </c>
@@ -2407,7 +2465,7 @@
         <v>44743</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>84</v>
@@ -2417,7 +2475,7 @@
       </c>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A37" s="12">
         <v>1204190063</v>
       </c>
@@ -2428,7 +2486,7 @@
         <v>44743</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>79</v>
@@ -2456,19 +2514,19 @@
       <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.21875" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.88671875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.90625" style="16" customWidth="1"/>
     <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2497,7 +2555,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="15"/>
@@ -2506,7 +2564,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="15"/>
@@ -2515,7 +2573,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="15"/>
@@ -2524,7 +2582,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="15"/>
@@ -2533,7 +2591,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="15"/>
@@ -2542,7 +2600,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="15"/>
@@ -2551,7 +2609,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="15"/>
@@ -2560,7 +2618,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="15"/>
@@ -2569,7 +2627,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="15"/>
@@ -2578,7 +2636,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="15"/>
@@ -2587,7 +2645,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="15"/>
@@ -2596,7 +2654,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="15"/>
@@ -2605,7 +2663,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="15"/>
@@ -2614,7 +2672,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="15"/>
@@ -2623,7 +2681,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="15"/>
@@ -2632,7 +2690,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="15"/>
@@ -2641,7 +2699,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="15"/>
@@ -2650,7 +2708,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="15"/>
@@ -2659,7 +2717,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="15"/>
@@ -2668,7 +2726,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="15"/>
@@ -2677,7 +2735,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="15"/>
@@ -2686,7 +2744,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="15"/>
@@ -2695,7 +2753,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="15"/>
@@ -2704,7 +2762,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="15"/>
@@ -2713,7 +2771,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="15"/>
@@ -2722,7 +2780,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="15"/>
@@ -2731,7 +2789,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="15"/>
@@ -2740,7 +2798,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="15"/>
@@ -2749,7 +2807,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="15"/>
@@ -2758,7 +2816,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="15"/>
@@ -2767,7 +2825,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="15"/>
@@ -2776,7 +2834,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="15"/>
@@ -2785,7 +2843,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="15"/>
@@ -2794,7 +2852,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="15"/>
@@ -2803,7 +2861,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="15"/>
@@ -2812,7 +2870,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="15"/>

--- a/master data mahasiswa TA.xlsx
+++ b/master data mahasiswa TA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfbee3ff0ebd21f1/simta application/simta/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kampus\HLP\simta\sim-ta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{475FD592-FCDF-419D-9937-D1DDEE3C4309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1445CB16-E106-41A4-BAD1-5C03DC9F793F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A241A65-AA4C-4EC9-BF8C-2144BB719C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9D7D56C9-3BFC-42AD-8CDB-4B7184614D5D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{9D7D56C9-3BFC-42AD-8CDB-4B7184614D5D}"/>
   </bookViews>
   <sheets>
     <sheet name="gjl 21.22" sheetId="5" r:id="rId1"/>
@@ -657,12 +657,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -984,22 +986,22 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.81640625" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="61" customWidth="1"/>
     <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.81640625" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1028,7 +1030,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="7" customFormat="1" ht="50" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" s="7" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1204181023</v>
       </c>
@@ -1054,7 +1056,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="7" customFormat="1" ht="50" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="7" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1204181014</v>
       </c>
@@ -1091,25 +1093,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4581FFC7-B881-4499-AE83-3025939247E8}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.453125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.1796875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.21875" style="4" customWidth="1"/>
     <col min="5" max="6" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" style="4"/>
-    <col min="9" max="9" width="11.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.81640625" style="4"/>
+    <col min="8" max="8" width="8.77734375" style="4"/>
+    <col min="9" max="9" width="11.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.77734375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1138,7 +1141,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="11" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" s="11" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1204180002</v>
       </c>
@@ -1164,7 +1167,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="11" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>1204180003</v>
       </c>
@@ -1186,11 +1189,11 @@
       <c r="G3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="23" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>1204180006</v>
       </c>
@@ -1214,7 +1217,7 @@
       </c>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:9" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>1204180007</v>
       </c>
@@ -1238,7 +1241,7 @@
       </c>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:9" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>1204180009</v>
       </c>
@@ -1261,7 +1264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>1204180013</v>
       </c>
@@ -1284,7 +1287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>1204180016</v>
       </c>
@@ -1304,7 +1307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>1204180024</v>
       </c>
@@ -1327,7 +1330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="11" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" s="11" customFormat="1" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>1204180026</v>
       </c>
@@ -1349,11 +1352,11 @@
       <c r="G10" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="23" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>1204180027</v>
       </c>
@@ -1376,7 +1379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" s="11" customFormat="1" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>1204180029</v>
       </c>
@@ -1398,11 +1401,11 @@
       <c r="G12" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="23" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>1204180031</v>
       </c>
@@ -1424,9 +1427,9 @@
       <c r="G13" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="24"/>
-    </row>
-    <row r="14" spans="1:9" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="H13" s="23"/>
+    </row>
+    <row r="14" spans="1:9" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>1204181004</v>
       </c>
@@ -1449,7 +1452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="11" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" s="11" customFormat="1" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>1204181008</v>
       </c>
@@ -1471,11 +1474,11 @@
       <c r="G15" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="24" t="s">
+      <c r="H15" s="23" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" s="11" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>1204181011</v>
       </c>
@@ -1501,7 +1504,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="11" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" s="11" customFormat="1" ht="46.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>1204181021</v>
       </c>
@@ -1524,7 +1527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>1204181028</v>
       </c>
@@ -1547,7 +1550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="11" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" s="11" customFormat="1" ht="21.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>1204183030</v>
       </c>
@@ -1570,7 +1573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>1204180005</v>
       </c>
@@ -1585,7 +1588,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="11" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="11" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>1204180015</v>
       </c>
@@ -1595,7 +1598,7 @@
       <c r="C21" s="13">
         <v>44593</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="25" t="s">
         <v>127</v>
       </c>
       <c r="E21" s="11" t="s">
@@ -1604,11 +1607,11 @@
       <c r="F21" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="24" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>1204180017</v>
       </c>
@@ -1622,9 +1625,9 @@
       <c r="F22" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H22" s="24"/>
-    </row>
-    <row r="23" spans="1:8" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H22" s="23"/>
+    </row>
+    <row r="23" spans="1:8" s="11" customFormat="1" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>1204180018</v>
       </c>
@@ -1643,11 +1646,11 @@
       <c r="F23" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="H23" s="24" t="s">
+      <c r="H23" s="23" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="11" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>1204180019</v>
       </c>
@@ -1666,11 +1669,11 @@
       <c r="F24" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="H24" s="24" t="s">
+      <c r="H24" s="23" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>1204180020</v>
       </c>
@@ -1695,23 +1698,24 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.90625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.88671875" style="16" customWidth="1"/>
     <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1740,7 +1744,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>1204199045</v>
       </c>
@@ -1761,7 +1765,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>1204190066</v>
       </c>
@@ -1782,7 +1786,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>1204199039</v>
       </c>
@@ -1803,7 +1807,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>1204190051</v>
       </c>
@@ -1824,7 +1828,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>1204190018</v>
       </c>
@@ -1845,7 +1849,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>1204190050</v>
       </c>
@@ -1866,7 +1870,7 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>1204190057</v>
       </c>
@@ -1887,7 +1891,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>1204192062</v>
       </c>
@@ -1908,7 +1912,7 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>1204190002</v>
       </c>
@@ -1929,7 +1933,7 @@
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>1204192013</v>
       </c>
@@ -1950,7 +1954,7 @@
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>1204199007</v>
       </c>
@@ -1971,7 +1975,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>1204199001</v>
       </c>
@@ -1992,7 +1996,7 @@
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>1204190067</v>
       </c>
@@ -2013,7 +2017,7 @@
       </c>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>1204190006</v>
       </c>
@@ -2034,7 +2038,7 @@
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>1204190046</v>
       </c>
@@ -2055,7 +2059,7 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>1204190021</v>
       </c>
@@ -2076,7 +2080,7 @@
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>1204190014</v>
       </c>
@@ -2097,7 +2101,7 @@
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>1204190032</v>
       </c>
@@ -2118,7 +2122,7 @@
       </c>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>1204190037</v>
       </c>
@@ -2139,7 +2143,7 @@
       </c>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>1204190010</v>
       </c>
@@ -2160,7 +2164,7 @@
       </c>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>1204190015</v>
       </c>
@@ -2181,7 +2185,7 @@
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>1204190029</v>
       </c>
@@ -2202,7 +2206,7 @@
       </c>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>1204190058</v>
       </c>
@@ -2223,7 +2227,7 @@
       </c>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>1204190069</v>
       </c>
@@ -2244,7 +2248,7 @@
       </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>1204199043</v>
       </c>
@@ -2265,7 +2269,7 @@
       </c>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>1204190049</v>
       </c>
@@ -2286,7 +2290,7 @@
       </c>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>1204190060</v>
       </c>
@@ -2307,7 +2311,7 @@
       </c>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>1204190073</v>
       </c>
@@ -2328,7 +2332,7 @@
       </c>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>1204190012</v>
       </c>
@@ -2349,7 +2353,7 @@
       </c>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>1204192020</v>
       </c>
@@ -2370,7 +2374,7 @@
       </c>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>1204190042</v>
       </c>
@@ -2391,7 +2395,7 @@
       </c>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>1204190011</v>
       </c>
@@ -2412,7 +2416,7 @@
       </c>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>1204199061</v>
       </c>
@@ -2433,7 +2437,7 @@
       </c>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>1204192030</v>
       </c>
@@ -2454,7 +2458,7 @@
       </c>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
         <v>1204190017</v>
       </c>
@@ -2475,7 +2479,7 @@
       </c>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
         <v>1204190063</v>
       </c>
@@ -2509,24 +2513,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CC19EE-8F0D-4BC1-80CB-7F34D94B7007}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.90625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.88671875" style="16" customWidth="1"/>
     <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2555,7 +2559,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="15"/>
@@ -2564,7 +2568,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="15"/>
@@ -2573,7 +2577,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="15"/>
@@ -2582,7 +2586,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="15"/>
@@ -2591,7 +2595,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="15"/>
@@ -2600,7 +2604,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="15"/>
@@ -2609,7 +2613,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="15"/>
@@ -2618,7 +2622,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="15"/>
@@ -2627,7 +2631,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="15"/>
@@ -2636,7 +2640,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="15"/>
@@ -2645,7 +2649,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="15"/>
@@ -2654,7 +2658,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="15"/>
@@ -2663,7 +2667,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="15"/>
@@ -2672,7 +2676,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="15"/>
@@ -2681,7 +2685,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="15"/>
@@ -2690,7 +2694,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="15"/>
@@ -2699,7 +2703,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="15"/>
@@ -2708,7 +2712,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="15"/>
@@ -2717,7 +2721,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="15"/>
@@ -2726,7 +2730,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="15"/>
@@ -2735,7 +2739,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="15"/>
@@ -2744,7 +2748,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="15"/>
@@ -2753,7 +2757,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="15"/>
@@ -2762,7 +2766,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="15"/>
@@ -2771,7 +2775,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="15"/>
@@ -2780,7 +2784,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="15"/>
@@ -2789,7 +2793,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="15"/>
@@ -2798,7 +2802,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="15"/>
@@ -2807,7 +2811,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="15"/>
@@ -2816,7 +2820,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="15"/>
@@ -2825,7 +2829,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="15"/>
@@ -2834,7 +2838,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="15"/>
@@ -2843,7 +2847,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="15"/>
@@ -2852,7 +2856,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="15"/>
@@ -2861,7 +2865,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="15"/>
@@ -2870,7 +2874,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="15"/>

--- a/master data mahasiswa TA.xlsx
+++ b/master data mahasiswa TA.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfbee3ff0ebd21f1/simta application/simta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="13_ncr:1_{4A241A65-AA4C-4EC9-BF8C-2144BB719C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E945EB5-A93A-41F4-8094-BAEFCC9996C7}"/>
+  <xr:revisionPtr revIDLastSave="128" documentId="13_ncr:1_{4A241A65-AA4C-4EC9-BF8C-2144BB719C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{544E5FAE-4141-4DFD-A0A5-9EA2800CB68A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9D7D56C9-3BFC-42AD-8CDB-4B7184614D5D}"/>
+    <workbookView xWindow="3030" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{9D7D56C9-3BFC-42AD-8CDB-4B7184614D5D}"/>
   </bookViews>
   <sheets>
     <sheet name="gjl 22.23" sheetId="7" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,12 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -60,9 +57,6 @@
     <t>status</t>
   </si>
   <si>
-    <t>link publikasi</t>
-  </si>
-  <si>
     <t>kontak</t>
   </si>
   <si>
@@ -150,10 +144,6 @@
     <t>Tanang Satriyo Adi</t>
   </si>
   <si>
-    <t>Sistem Pendukung Keputusan Pemilihan Vendor Dengan Menggunakan Metode Simple Additive Weighting (SAW) Pada PT. 
-Dayamitra Telekomunikasi Tbk</t>
-  </si>
-  <si>
     <t>Abu Bakar Muhammad Amrulloh</t>
   </si>
   <si>
@@ -214,10 +204,6 @@
     <t>Widya Bagas Richa Anggraeni</t>
   </si>
   <si>
-    <t>Analisis Penerimaan Sistem Pembayaran Shopeepay Menggunakan Technology Acceptance Model Terhadap Minat Beli 
-Pengguna Shopee</t>
-  </si>
-  <si>
     <t>Syahrizal Akbar Maulana</t>
   </si>
   <si>
@@ -404,9 +390,6 @@
     <t>Nadiah Ratnaduhita</t>
   </si>
   <si>
-    <t>Evaluasi Kualitas Sistem Pembelajaran Online Menggunakan Iso/Iec 25010 (Studi Kasus: E-Learning Ittelkom Surabaya)</t>
-  </si>
-  <si>
     <t>Pratama Ramadhani Wijaya</t>
   </si>
   <si>
@@ -416,15 +399,9 @@
     <t>Putra Anugrah Purwanto</t>
   </si>
   <si>
-    <t>Implementasi Ar Sebagai Media Pembelajaran Interaktif Pada Mata Kuliah Aorkom Di It Telkom Surabaya</t>
-  </si>
-  <si>
     <t>Rayhan Zahwan Saleh</t>
   </si>
   <si>
-    <t>Perancangan Dan Implementasi Dashboard Monitoring It Telkom Surabaya Berdasarkan Standar Akreditasi Perguruan Tinggi Ban-Pt</t>
-  </si>
-  <si>
     <t>Rhevindra Permata Anggriawan</t>
   </si>
   <si>
@@ -477,6 +454,24 @@
   </si>
   <si>
     <t>Analisis Kepuasan Pengguna Aplikasi Mobile E-Learning Dengan Metode Technology Acceptance Model (Tam) (Studi Kasus Pada Jurusan Sistem Informasi Institut Teknologi Telkom Surabaya)</t>
+  </si>
+  <si>
+    <t>publikasi</t>
+  </si>
+  <si>
+    <t>Evaluasi Kualitas Sistem Pembelajaran Online Menggunakan ISO/IEC 25010 (Studi Kasus: E-Learning IT Telkom Surabaya)</t>
+  </si>
+  <si>
+    <t>Implementasi Ar Sebagai Media Pembelajaran Interaktif Pada Mata Kuliah Aorkom di IT Telkom Surabaya</t>
+  </si>
+  <si>
+    <t>Perancangan Dan Implementasi Dashboard Monitoring IT Telkom Surabaya Berdasarkan Standar Akreditasi Perguruan Tinggi Ban-PT</t>
+  </si>
+  <si>
+    <t>Analisis Penerimaan Sistem Pembayaran Shopeepay Menggunakan Technology Acceptance Model Terhadap Minat Beli Pengguna Shopee</t>
+  </si>
+  <si>
+    <t>Sistem Pendukung Keputusan Pemilihan Vendor Dengan Menggunakan Metode Simple Additive Weighting (SAW) Pada PT. Dayamitra Telekomunikasi Tbk</t>
   </si>
 </sst>
 </file>
@@ -594,7 +589,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -642,12 +637,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="17" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -659,6 +648,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="17" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -982,21 +980,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C966F923-3B2B-4299-B621-1C0A34313445}">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C7" sqref="C7"/>
-      <selection pane="bottomLeft" activeCell="H70" sqref="H70"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.26953125" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.1796875" style="3" customWidth="1"/>
-    <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" customWidth="1"/>
+    <col min="4" max="4" width="67.81640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1013,7 +1012,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1023,10 +1022,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -1034,26 +1033,26 @@
         <v>1204181014</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="D2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="17" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="19" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -1061,26 +1060,26 @@
         <v>1204181023</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="G3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="17" t="s">
         <v>14</v>
-      </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="19" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -1088,26 +1087,26 @@
         <v>1204180002</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="D4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>23</v>
-      </c>
       <c r="G4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="17" t="s">
         <v>14</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="19" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -1115,26 +1114,26 @@
         <v>1204180003</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>26</v>
-      </c>
       <c r="G5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="17" t="s">
         <v>14</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="19" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -1142,99 +1141,99 @@
         <v>1204180006</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>28</v>
-      </c>
       <c r="E6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="G6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>14</v>
-      </c>
       <c r="H6" s="10"/>
-      <c r="I6" s="21"/>
-    </row>
-    <row r="7" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="1:9" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15">
         <v>1204180007</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="E7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>31</v>
-      </c>
       <c r="F7" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7" s="10"/>
-      <c r="I7" s="21"/>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="15">
         <v>1204180009</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="14" t="s">
+      <c r="G8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>35</v>
-      </c>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
         <v>1204180013</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="15"/>
@@ -1244,20 +1243,20 @@
         <v>1204180016</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>21</v>
+        <v>36</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="15"/>
@@ -1267,22 +1266,22 @@
         <v>1204180024</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>41</v>
-      </c>
       <c r="F11" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="15"/>
@@ -1292,26 +1291,26 @@
         <v>1204180026</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>21</v>
+        <v>40</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="H12" s="10"/>
+      <c r="I12" s="17" t="s">
         <v>14</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="19" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -1319,22 +1318,22 @@
         <v>1204180027</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>21</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="15"/>
@@ -1344,26 +1343,26 @@
         <v>1204180029</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>48</v>
-      </c>
       <c r="G14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="17" t="s">
         <v>14</v>
-      </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="19" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -1371,47 +1370,47 @@
         <v>1204180031</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>21</v>
+        <v>47</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H15" s="10"/>
-      <c r="I15" s="20"/>
+      <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="15">
         <v>1204181004</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>21</v>
+        <v>49</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="G16" s="15" t="s">
         <v>13</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>14</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="15"/>
@@ -1421,26 +1420,26 @@
         <v>1204181008</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>21</v>
+        <v>51</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E17" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="15" t="s">
-        <v>19</v>
-      </c>
       <c r="G17" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="17" t="s">
         <v>14</v>
-      </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="19" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -1448,49 +1447,49 @@
         <v>1204181011</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>21</v>
+        <v>53</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G18" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="15">
         <v>1204181021</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>21</v>
+        <v>55</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H19" s="10"/>
       <c r="I19" s="15"/>
@@ -1500,22 +1499,22 @@
         <v>1204181028</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>21</v>
+        <v>56</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="15"/>
@@ -1525,22 +1524,22 @@
         <v>1204183030</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>21</v>
+        <v>58</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="15"/>
@@ -1550,17 +1549,17 @@
         <v>1204180005</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>21</v>
+        <v>60</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="10"/>
@@ -1571,24 +1570,24 @@
         <v>1204180015</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>21</v>
+        <v>61</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="19" t="s">
-        <v>15</v>
+      <c r="I23" s="17" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -1596,45 +1595,45 @@
         <v>1204180017</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>21</v>
+        <v>63</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="20"/>
+      <c r="I24" s="18"/>
     </row>
     <row r="25" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A25" s="15">
         <v>1204180018</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>21</v>
+        <v>64</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E25" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="15" t="s">
         <v>18</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>19</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="19" t="s">
-        <v>15</v>
+      <c r="I25" s="17" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -1642,24 +1641,24 @@
         <v>1204180019</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>21</v>
+        <v>66</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="19" t="s">
-        <v>15</v>
+      <c r="I26" s="17" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -1667,17 +1666,17 @@
         <v>1204180020</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>21</v>
+        <v>68</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G27" s="15"/>
       <c r="H27" s="10"/>
@@ -1688,19 +1687,19 @@
         <v>1204199045</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="5"/>
@@ -1711,19 +1710,19 @@
         <v>1204190066</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>76</v>
-      </c>
       <c r="E29" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="5"/>
@@ -1734,19 +1733,19 @@
         <v>1204199039</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="5"/>
@@ -1757,19 +1756,19 @@
         <v>1204190051</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>73</v>
+        <v>77</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="5"/>
@@ -1780,19 +1779,19 @@
         <v>1204190018</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>73</v>
+        <v>79</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="5"/>
@@ -1803,19 +1802,19 @@
         <v>1204190050</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>73</v>
+        <v>81</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="5"/>
@@ -1826,19 +1825,19 @@
         <v>1204190057</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>73</v>
+        <v>83</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="5"/>
@@ -1849,19 +1848,19 @@
         <v>1204192062</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>73</v>
+        <v>85</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G35" s="15"/>
       <c r="H35" s="5"/>
@@ -1872,19 +1871,19 @@
         <v>1204190002</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>73</v>
+        <v>87</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="5"/>
@@ -1895,19 +1894,19 @@
         <v>1204192013</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>73</v>
+        <v>89</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="5"/>
@@ -1918,19 +1917,19 @@
         <v>1204199007</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>73</v>
+        <v>91</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="5"/>
@@ -1941,19 +1940,19 @@
         <v>1204199001</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>73</v>
+        <v>93</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G39" s="15"/>
       <c r="H39" s="5"/>
@@ -1964,19 +1963,19 @@
         <v>1204190067</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>73</v>
+        <v>95</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G40" s="15"/>
       <c r="H40" s="5"/>
@@ -1987,19 +1986,19 @@
         <v>1204190006</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>73</v>
+        <v>97</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="5"/>
@@ -2010,19 +2009,19 @@
         <v>1204190046</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>73</v>
+        <v>99</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="5"/>
@@ -2033,19 +2032,19 @@
         <v>1204190021</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>73</v>
+        <v>101</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G43" s="15"/>
       <c r="H43" s="5"/>
@@ -2056,19 +2055,19 @@
         <v>1204190014</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>73</v>
+        <v>103</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G44" s="15"/>
       <c r="H44" s="5"/>
@@ -2079,19 +2078,19 @@
         <v>1204190032</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>73</v>
+        <v>105</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G45" s="15"/>
       <c r="H45" s="5"/>
@@ -2102,19 +2101,19 @@
         <v>1204190037</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>73</v>
+        <v>107</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G46" s="15"/>
       <c r="H46" s="5"/>
@@ -2125,19 +2124,19 @@
         <v>1204190010</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>73</v>
+        <v>109</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G47" s="15"/>
       <c r="H47" s="5"/>
@@ -2148,19 +2147,19 @@
         <v>1204190015</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>73</v>
+        <v>111</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G48" s="15"/>
       <c r="H48" s="5"/>
@@ -2171,19 +2170,19 @@
         <v>1204190029</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>73</v>
+        <v>113</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G49" s="15"/>
       <c r="H49" s="5"/>
@@ -2194,19 +2193,19 @@
         <v>1204190058</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>73</v>
+        <v>115</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G50" s="15"/>
       <c r="H50" s="5"/>
@@ -2217,19 +2216,19 @@
         <v>1204190069</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>73</v>
+        <v>117</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G51" s="15"/>
       <c r="H51" s="5"/>
@@ -2240,19 +2239,19 @@
         <v>1204199043</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>73</v>
+        <v>118</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G52" s="15"/>
       <c r="H52" s="5"/>
@@ -2263,19 +2262,19 @@
         <v>1204190049</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>73</v>
+        <v>120</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G53" s="15"/>
       <c r="H53" s="5"/>
@@ -2286,19 +2285,19 @@
         <v>1204190060</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>73</v>
+        <v>121</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G54" s="15"/>
       <c r="H54" s="5"/>
@@ -2309,19 +2308,19 @@
         <v>1204190073</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>73</v>
+        <v>122</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G55" s="15"/>
       <c r="H55" s="5"/>
@@ -2332,19 +2331,19 @@
         <v>1204190012</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>73</v>
+        <v>124</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G56" s="15"/>
       <c r="H56" s="5"/>
@@ -2355,19 +2354,19 @@
         <v>1204192020</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>73</v>
+        <v>126</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G57" s="15"/>
       <c r="H57" s="5"/>
@@ -2378,42 +2377,42 @@
         <v>1204190042</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>73</v>
+        <v>128</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G58" s="15"/>
       <c r="H58" s="5"/>
       <c r="I58" s="16"/>
     </row>
-    <row r="59" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A59" s="14">
         <v>1204190011</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>73</v>
+        <v>130</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G59" s="15"/>
       <c r="H59" s="5"/>
@@ -2424,19 +2423,19 @@
         <v>1204199061</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>73</v>
+        <v>132</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G60" s="15"/>
       <c r="H60" s="5"/>
@@ -2447,19 +2446,19 @@
         <v>1204192030</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>73</v>
+        <v>134</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G61" s="15"/>
       <c r="H61" s="5"/>
@@ -2470,19 +2469,19 @@
         <v>1204190017</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>73</v>
+        <v>136</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G62" s="15"/>
       <c r="H62" s="5"/>
@@ -2493,19 +2492,19 @@
         <v>1204190063</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>73</v>
+        <v>138</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G63" s="15"/>
       <c r="H63" s="5"/>

--- a/master data mahasiswa TA.xlsx
+++ b/master data mahasiswa TA.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfbee3ff0ebd21f1/simta application/simta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="128" documentId="13_ncr:1_{4A241A65-AA4C-4EC9-BF8C-2144BB719C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{544E5FAE-4141-4DFD-A0A5-9EA2800CB68A}"/>
+  <xr:revisionPtr revIDLastSave="164" documentId="13_ncr:1_{4A241A65-AA4C-4EC9-BF8C-2144BB719C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2AA65BC-8468-4AC1-A351-876FD46A5DBF}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{9D7D56C9-3BFC-42AD-8CDB-4B7184614D5D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9D7D56C9-3BFC-42AD-8CDB-4B7184614D5D}"/>
   </bookViews>
   <sheets>
     <sheet name="gjl 22.23" sheetId="7" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'gjl 22.23'!$A$1:$I$63</definedName>
+  </definedNames>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,9 +26,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -57,6 +62,9 @@
     <t>status</t>
   </si>
   <si>
+    <t>publikasi</t>
+  </si>
+  <si>
     <t>kontak</t>
   </si>
   <si>
@@ -144,6 +152,9 @@
     <t>Tanang Satriyo Adi</t>
   </si>
   <si>
+    <t>Sistem Pendukung Keputusan Pemilihan Vendor Dengan Menggunakan Metode Simple Additive Weighting (SAW) Pada PT. Dayamitra Telekomunikasi Tbk</t>
+  </si>
+  <si>
     <t>Abu Bakar Muhammad Amrulloh</t>
   </si>
   <si>
@@ -204,6 +215,9 @@
     <t>Widya Bagas Richa Anggraeni</t>
   </si>
   <si>
+    <t>Analisis Penerimaan Sistem Pembayaran Shopeepay Menggunakan Technology Acceptance Model Terhadap Minat Beli Pengguna Shopee</t>
+  </si>
+  <si>
     <t>Syahrizal Akbar Maulana</t>
   </si>
   <si>
@@ -390,6 +404,9 @@
     <t>Nadiah Ratnaduhita</t>
   </si>
   <si>
+    <t>Evaluasi Kualitas Sistem Pembelajaran Online Menggunakan ISO/IEC 25010 (Studi Kasus: E-Learning IT Telkom Surabaya)</t>
+  </si>
+  <si>
     <t>Pratama Ramadhani Wijaya</t>
   </si>
   <si>
@@ -399,9 +416,15 @@
     <t>Putra Anugrah Purwanto</t>
   </si>
   <si>
+    <t>Implementasi Ar Sebagai Media Pembelajaran Interaktif Pada Mata Kuliah Aorkom di IT Telkom Surabaya</t>
+  </si>
+  <si>
     <t>Rayhan Zahwan Saleh</t>
   </si>
   <si>
+    <t>Perancangan Dan Implementasi Dashboard Monitoring IT Telkom Surabaya Berdasarkan Standar Akreditasi Perguruan Tinggi Ban-PT</t>
+  </si>
+  <si>
     <t>Rhevindra Permata Anggriawan</t>
   </si>
   <si>
@@ -454,24 +477,6 @@
   </si>
   <si>
     <t>Analisis Kepuasan Pengguna Aplikasi Mobile E-Learning Dengan Metode Technology Acceptance Model (Tam) (Studi Kasus Pada Jurusan Sistem Informasi Institut Teknologi Telkom Surabaya)</t>
-  </si>
-  <si>
-    <t>publikasi</t>
-  </si>
-  <si>
-    <t>Evaluasi Kualitas Sistem Pembelajaran Online Menggunakan ISO/IEC 25010 (Studi Kasus: E-Learning IT Telkom Surabaya)</t>
-  </si>
-  <si>
-    <t>Implementasi Ar Sebagai Media Pembelajaran Interaktif Pada Mata Kuliah Aorkom di IT Telkom Surabaya</t>
-  </si>
-  <si>
-    <t>Perancangan Dan Implementasi Dashboard Monitoring IT Telkom Surabaya Berdasarkan Standar Akreditasi Perguruan Tinggi Ban-PT</t>
-  </si>
-  <si>
-    <t>Analisis Penerimaan Sistem Pembayaran Shopeepay Menggunakan Technology Acceptance Model Terhadap Minat Beli Pengguna Shopee</t>
-  </si>
-  <si>
-    <t>Sistem Pendukung Keputusan Pemilihan Vendor Dengan Menggunakan Metode Simple Additive Weighting (SAW) Pada PT. Dayamitra Telekomunikasi Tbk</t>
   </si>
 </sst>
 </file>
@@ -589,7 +594,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -656,6 +661,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -980,23 +988,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C966F923-3B2B-4299-B621-1C0A34313445}">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C7" sqref="C7"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" customWidth="1"/>
-    <col min="4" max="4" width="67.81640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.36328125" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" customWidth="1"/>
+    <col min="4" max="4" width="66.1796875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" customWidth="1"/>
+    <col min="6" max="6" width="11.36328125" customWidth="1"/>
+    <col min="7" max="7" width="8.54296875" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1006,7 +1014,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1015,17 +1023,17 @@
       <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -1033,26 +1041,26 @@
         <v>1204181014</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -1060,26 +1068,26 @@
         <v>1204181023</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -1087,26 +1095,26 @@
         <v>1204180002</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -1114,26 +1122,26 @@
         <v>1204180003</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -1141,47 +1149,47 @@
         <v>1204180006</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="19"/>
     </row>
-    <row r="7" spans="1:9" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15">
         <v>1204180007</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="19"/>
@@ -1191,49 +1199,49 @@
         <v>1204180009</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>30</v>
-      </c>
       <c r="F8" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
         <v>1204180013</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="15"/>
@@ -1243,20 +1251,20 @@
         <v>1204180016</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="15"/>
@@ -1266,22 +1274,22 @@
         <v>1204180024</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="15"/>
@@ -1291,26 +1299,26 @@
         <v>1204180026</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>39</v>
-      </c>
       <c r="F12" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -1318,22 +1326,22 @@
         <v>1204180027</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="15"/>
@@ -1343,26 +1351,26 @@
         <v>1204180029</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -1370,22 +1378,22 @@
         <v>1204180031</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="18"/>
@@ -1395,22 +1403,22 @@
         <v>1204181004</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="15"/>
@@ -1420,26 +1428,26 @@
         <v>1204181008</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -1447,26 +1455,26 @@
         <v>1204181011</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -1474,22 +1482,22 @@
         <v>1204181021</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" s="10"/>
       <c r="I19" s="15"/>
@@ -1499,47 +1507,47 @@
         <v>1204181028</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="15"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="15">
         <v>1204183030</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="15"/>
@@ -1549,17 +1557,17 @@
         <v>1204180005</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="10"/>
@@ -1570,24 +1578,24 @@
         <v>1204180015</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="10"/>
       <c r="I23" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -1595,17 +1603,17 @@
         <v>1204180017</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="10"/>
@@ -1616,24 +1624,24 @@
         <v>1204180018</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="10"/>
       <c r="I25" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -1641,24 +1649,24 @@
         <v>1204180019</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="10"/>
       <c r="I26" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -1666,40 +1674,40 @@
         <v>1204180020</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G27" s="15"/>
       <c r="H27" s="10"/>
       <c r="I27" s="15"/>
     </row>
-    <row r="28" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="50" x14ac:dyDescent="0.35">
       <c r="A28" s="14">
         <v>1204199045</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="5"/>
@@ -1710,19 +1718,19 @@
         <v>1204190066</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="5"/>
@@ -1733,19 +1741,19 @@
         <v>1204199039</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="5"/>
@@ -1756,19 +1764,19 @@
         <v>1204190051</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="5"/>
@@ -1779,19 +1787,19 @@
         <v>1204190018</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="5"/>
@@ -1802,19 +1810,19 @@
         <v>1204190050</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="5"/>
@@ -1825,19 +1833,19 @@
         <v>1204190057</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="5"/>
@@ -1848,19 +1856,19 @@
         <v>1204192062</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G35" s="15"/>
       <c r="H35" s="5"/>
@@ -1871,19 +1879,19 @@
         <v>1204190002</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="5"/>
@@ -1894,19 +1902,19 @@
         <v>1204192013</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="5"/>
@@ -1917,19 +1925,19 @@
         <v>1204199007</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="5"/>
@@ -1940,42 +1948,42 @@
         <v>1204199001</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G39" s="15"/>
       <c r="H39" s="5"/>
       <c r="I39" s="16"/>
     </row>
-    <row r="40" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A40" s="14">
         <v>1204190067</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G40" s="15"/>
       <c r="H40" s="5"/>
@@ -1986,19 +1994,19 @@
         <v>1204190006</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="5"/>
@@ -2009,19 +2017,19 @@
         <v>1204190046</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E42" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="14" t="s">
         <v>18</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>17</v>
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="5"/>
@@ -2032,19 +2040,19 @@
         <v>1204190021</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G43" s="15"/>
       <c r="H43" s="5"/>
@@ -2055,19 +2063,19 @@
         <v>1204190014</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G44" s="15"/>
       <c r="H44" s="5"/>
@@ -2078,19 +2086,19 @@
         <v>1204190032</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G45" s="15"/>
       <c r="H45" s="5"/>
@@ -2101,19 +2109,19 @@
         <v>1204190037</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G46" s="15"/>
       <c r="H46" s="5"/>
@@ -2124,19 +2132,19 @@
         <v>1204190010</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G47" s="15"/>
       <c r="H47" s="5"/>
@@ -2147,19 +2155,19 @@
         <v>1204190015</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G48" s="15"/>
       <c r="H48" s="5"/>
@@ -2170,19 +2178,19 @@
         <v>1204190029</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G49" s="15"/>
       <c r="H49" s="5"/>
@@ -2193,19 +2201,19 @@
         <v>1204190058</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G50" s="15"/>
       <c r="H50" s="5"/>
@@ -2216,19 +2224,19 @@
         <v>1204190069</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" s="15"/>
       <c r="H51" s="5"/>
@@ -2239,19 +2247,19 @@
         <v>1204199043</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G52" s="15"/>
       <c r="H52" s="5"/>
@@ -2262,19 +2270,19 @@
         <v>1204190049</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G53" s="15"/>
       <c r="H53" s="5"/>
@@ -2285,19 +2293,19 @@
         <v>1204190060</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G54" s="15"/>
       <c r="H54" s="5"/>
@@ -2308,19 +2316,19 @@
         <v>1204190073</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G55" s="15"/>
       <c r="H55" s="5"/>
@@ -2331,19 +2339,19 @@
         <v>1204190012</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G56" s="15"/>
       <c r="H56" s="5"/>
@@ -2354,19 +2362,19 @@
         <v>1204192020</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G57" s="15"/>
       <c r="H57" s="5"/>
@@ -2377,19 +2385,19 @@
         <v>1204190042</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G58" s="15"/>
       <c r="H58" s="5"/>
@@ -2400,19 +2408,19 @@
         <v>1204190011</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G59" s="15"/>
       <c r="H59" s="5"/>
@@ -2423,19 +2431,19 @@
         <v>1204199061</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G60" s="15"/>
       <c r="H60" s="5"/>
@@ -2446,19 +2454,19 @@
         <v>1204192030</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G61" s="15"/>
       <c r="H61" s="5"/>
@@ -2469,19 +2477,19 @@
         <v>1204190017</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G62" s="15"/>
       <c r="H62" s="5"/>
@@ -2492,25 +2500,26 @@
         <v>1204190063</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G63" s="15"/>
       <c r="H63" s="5"/>
       <c r="I63" s="16"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I63" xr:uid="{C966F923-3B2B-4299-B621-1C0A34313445}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A28:I63">
     <sortCondition ref="B27:B63"/>
   </sortState>
@@ -2532,18 +2541,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId13"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4163B11-389A-4FA0-B11F-F4B5B513762C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/master data mahasiswa TA.xlsx
+++ b/master data mahasiswa TA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfbee3ff0ebd21f1/simta application/simta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="13_ncr:1_{4A241A65-AA4C-4EC9-BF8C-2144BB719C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2AA65BC-8468-4AC1-A351-876FD46A5DBF}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="13_ncr:1_{4A241A65-AA4C-4EC9-BF8C-2144BB719C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4FBF92E-8208-45B4-B33B-0CC43AC26949}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9D7D56C9-3BFC-42AD-8CDB-4B7184614D5D}"/>
   </bookViews>
@@ -594,7 +594,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -643,15 +643,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="17" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -666,6 +657,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -991,7 +998,7 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C7" sqref="C7"/>
-      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomLeft" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -999,12 +1006,12 @@
     <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.36328125" customWidth="1"/>
     <col min="3" max="3" width="11.453125" customWidth="1"/>
-    <col min="4" max="4" width="66.1796875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.1796875" customWidth="1"/>
+    <col min="4" max="4" width="61.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" customWidth="1"/>
     <col min="6" max="6" width="11.36328125" customWidth="1"/>
     <col min="7" max="7" width="8.54296875" customWidth="1"/>
     <col min="8" max="8" width="10.81640625" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1014,36 +1021,36 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16">
         <v>1204181014</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="13" t="s">
@@ -1059,7 +1066,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="10"/>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="23" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1070,7 +1077,7 @@
       <c r="B3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -1086,18 +1093,18 @@
         <v>14</v>
       </c>
       <c r="H3" s="10"/>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15">
         <v>1204180002</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="9" t="s">
@@ -1113,7 +1120,7 @@
         <v>14</v>
       </c>
       <c r="H4" s="10"/>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="23" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1124,7 +1131,7 @@
       <c r="B5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -1140,7 +1147,7 @@
         <v>14</v>
       </c>
       <c r="H5" s="10"/>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="23" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1151,7 +1158,7 @@
       <c r="B6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="11" t="s">
@@ -1167,7 +1174,7 @@
         <v>14</v>
       </c>
       <c r="H6" s="10"/>
-      <c r="I6" s="19"/>
+      <c r="I6" s="24"/>
     </row>
     <row r="7" spans="1:9" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15">
@@ -1176,7 +1183,7 @@
       <c r="B7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -1192,7 +1199,7 @@
         <v>14</v>
       </c>
       <c r="H7" s="10"/>
-      <c r="I7" s="19"/>
+      <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="15">
@@ -1201,7 +1208,7 @@
       <c r="B8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="11" t="s">
@@ -1216,10 +1223,10 @@
       <c r="G8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="15"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
@@ -1228,7 +1235,7 @@
       <c r="B9" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="11" t="s">
@@ -1244,7 +1251,7 @@
         <v>14</v>
       </c>
       <c r="H9" s="10"/>
-      <c r="I9" s="15"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
@@ -1253,7 +1260,7 @@
       <c r="B10" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="8"/>
@@ -1267,7 +1274,7 @@
         <v>14</v>
       </c>
       <c r="H10" s="10"/>
-      <c r="I10" s="15"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
@@ -1276,7 +1283,7 @@
       <c r="B11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="11" t="s">
@@ -1292,16 +1299,16 @@
         <v>14</v>
       </c>
       <c r="H11" s="10"/>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="I11" s="25"/>
+    </row>
+    <row r="12" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
         <v>1204180026</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -1317,7 +1324,7 @@
         <v>14</v>
       </c>
       <c r="H12" s="10"/>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="23" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1328,7 +1335,7 @@
       <c r="B13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -1344,16 +1351,16 @@
         <v>14</v>
       </c>
       <c r="H13" s="10"/>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="I13" s="25"/>
+    </row>
+    <row r="14" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15">
         <v>1204180029</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -1369,7 +1376,7 @@
         <v>14</v>
       </c>
       <c r="H14" s="10"/>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="23" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1380,7 +1387,7 @@
       <c r="B15" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="11" t="s">
@@ -1396,7 +1403,7 @@
         <v>14</v>
       </c>
       <c r="H15" s="10"/>
-      <c r="I15" s="18"/>
+      <c r="I15" s="26"/>
     </row>
     <row r="16" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="15">
@@ -1405,7 +1412,7 @@
       <c r="B16" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="11" t="s">
@@ -1421,7 +1428,7 @@
         <v>14</v>
       </c>
       <c r="H16" s="10"/>
-      <c r="I16" s="15"/>
+      <c r="I16" s="25"/>
     </row>
     <row r="17" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="15">
@@ -1430,7 +1437,7 @@
       <c r="B17" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -1446,18 +1453,18 @@
         <v>14</v>
       </c>
       <c r="H17" s="10"/>
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15">
         <v>1204181011</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="9" t="s">
@@ -1473,7 +1480,7 @@
         <v>14</v>
       </c>
       <c r="H18" s="10"/>
-      <c r="I18" s="17" t="s">
+      <c r="I18" s="23" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1484,7 +1491,7 @@
       <c r="B19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="11" t="s">
@@ -1500,7 +1507,7 @@
         <v>14</v>
       </c>
       <c r="H19" s="10"/>
-      <c r="I19" s="15"/>
+      <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="15">
@@ -1509,7 +1516,7 @@
       <c r="B20" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="11" t="s">
@@ -1525,16 +1532,16 @@
         <v>14</v>
       </c>
       <c r="H20" s="10"/>
-      <c r="I20" s="15"/>
-    </row>
-    <row r="21" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="I20" s="25"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="15">
         <v>1204183030</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="11" t="s">
@@ -1550,7 +1557,7 @@
         <v>14</v>
       </c>
       <c r="H21" s="10"/>
-      <c r="I21" s="15"/>
+      <c r="I21" s="25"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="15">
@@ -1559,7 +1566,7 @@
       <c r="B22" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="8"/>
@@ -1571,7 +1578,7 @@
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="15"/>
+      <c r="I22" s="25"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="15">
@@ -1580,7 +1587,7 @@
       <c r="B23" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="12" t="s">
@@ -1594,7 +1601,7 @@
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="17" t="s">
+      <c r="I23" s="23" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1605,7 +1612,7 @@
       <c r="B24" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="8"/>
@@ -1617,16 +1624,16 @@
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="18"/>
-    </row>
-    <row r="25" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="I24" s="26"/>
+    </row>
+    <row r="25" spans="1:9" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="15">
         <v>1204180018</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -1640,7 +1647,7 @@
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="17" t="s">
+      <c r="I25" s="23" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1651,7 +1658,7 @@
       <c r="B26" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="9" t="s">
@@ -1665,7 +1672,7 @@
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="17" t="s">
+      <c r="I26" s="23" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1676,7 +1683,7 @@
       <c r="B27" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="8"/>
@@ -1688,7 +1695,7 @@
       </c>
       <c r="G27" s="15"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="15"/>
+      <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="50" x14ac:dyDescent="0.35">
       <c r="A28" s="14">
@@ -1697,7 +1704,7 @@
       <c r="B28" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -1711,7 +1718,7 @@
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="16"/>
+      <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="14">
@@ -1720,7 +1727,7 @@
       <c r="B29" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D29" s="6" t="s">
@@ -1734,7 +1741,7 @@
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="16"/>
+      <c r="I29" s="5"/>
     </row>
     <row r="30" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="14">
@@ -1743,7 +1750,7 @@
       <c r="B30" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D30" s="7" t="s">
@@ -1757,16 +1764,16 @@
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="5"/>
-      <c r="I30" s="16"/>
-    </row>
-    <row r="31" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A31" s="14">
         <v>1204190051</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -1780,16 +1787,16 @@
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="16"/>
-    </row>
-    <row r="32" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A32" s="14">
         <v>1204190018</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D32" s="4" t="s">
@@ -1803,16 +1810,16 @@
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="16"/>
-    </row>
-    <row r="33" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A33" s="14">
         <v>1204190050</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -1826,7 +1833,7 @@
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="5"/>
-      <c r="I33" s="16"/>
+      <c r="I33" s="5"/>
     </row>
     <row r="34" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="14">
@@ -1835,7 +1842,7 @@
       <c r="B34" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D34" s="4" t="s">
@@ -1849,7 +1856,7 @@
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="5"/>
-      <c r="I34" s="16"/>
+      <c r="I34" s="5"/>
     </row>
     <row r="35" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A35" s="14">
@@ -1858,7 +1865,7 @@
       <c r="B35" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D35" s="4" t="s">
@@ -1872,7 +1879,7 @@
       </c>
       <c r="G35" s="15"/>
       <c r="H35" s="5"/>
-      <c r="I35" s="16"/>
+      <c r="I35" s="5"/>
     </row>
     <row r="36" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A36" s="14">
@@ -1881,7 +1888,7 @@
       <c r="B36" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D36" s="4" t="s">
@@ -1895,7 +1902,7 @@
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="5"/>
-      <c r="I36" s="16"/>
+      <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A37" s="14">
@@ -1904,7 +1911,7 @@
       <c r="B37" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -1918,7 +1925,7 @@
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="5"/>
-      <c r="I37" s="16"/>
+      <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A38" s="14">
@@ -1927,7 +1934,7 @@
       <c r="B38" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -1941,7 +1948,7 @@
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="5"/>
-      <c r="I38" s="16"/>
+      <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A39" s="14">
@@ -1950,7 +1957,7 @@
       <c r="B39" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D39" s="4" t="s">
@@ -1964,7 +1971,7 @@
       </c>
       <c r="G39" s="15"/>
       <c r="H39" s="5"/>
-      <c r="I39" s="16"/>
+      <c r="I39" s="5"/>
     </row>
     <row r="40" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A40" s="14">
@@ -1973,7 +1980,7 @@
       <c r="B40" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D40" s="4" t="s">
@@ -1987,7 +1994,7 @@
       </c>
       <c r="G40" s="15"/>
       <c r="H40" s="5"/>
-      <c r="I40" s="16"/>
+      <c r="I40" s="5"/>
     </row>
     <row r="41" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A41" s="14">
@@ -1996,7 +2003,7 @@
       <c r="B41" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D41" s="4" t="s">
@@ -2010,7 +2017,7 @@
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="5"/>
-      <c r="I41" s="16"/>
+      <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A42" s="14">
@@ -2019,7 +2026,7 @@
       <c r="B42" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D42" s="4" t="s">
@@ -2033,7 +2040,7 @@
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="5"/>
-      <c r="I42" s="16"/>
+      <c r="I42" s="5"/>
     </row>
     <row r="43" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A43" s="14">
@@ -2042,7 +2049,7 @@
       <c r="B43" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D43" s="4" t="s">
@@ -2056,7 +2063,7 @@
       </c>
       <c r="G43" s="15"/>
       <c r="H43" s="5"/>
-      <c r="I43" s="16"/>
+      <c r="I43" s="5"/>
     </row>
     <row r="44" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A44" s="14">
@@ -2065,7 +2072,7 @@
       <c r="B44" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D44" s="4" t="s">
@@ -2079,16 +2086,16 @@
       </c>
       <c r="G44" s="15"/>
       <c r="H44" s="5"/>
-      <c r="I44" s="16"/>
-    </row>
-    <row r="45" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A45" s="14">
         <v>1204190032</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D45" s="4" t="s">
@@ -2102,7 +2109,7 @@
       </c>
       <c r="G45" s="15"/>
       <c r="H45" s="5"/>
-      <c r="I45" s="16"/>
+      <c r="I45" s="5"/>
     </row>
     <row r="46" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A46" s="14">
@@ -2111,7 +2118,7 @@
       <c r="B46" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D46" s="4" t="s">
@@ -2125,7 +2132,7 @@
       </c>
       <c r="G46" s="15"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="16"/>
+      <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A47" s="14">
@@ -2134,7 +2141,7 @@
       <c r="B47" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D47" s="4" t="s">
@@ -2148,7 +2155,7 @@
       </c>
       <c r="G47" s="15"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="16"/>
+      <c r="I47" s="5"/>
     </row>
     <row r="48" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A48" s="14">
@@ -2157,7 +2164,7 @@
       <c r="B48" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D48" s="4" t="s">
@@ -2171,7 +2178,7 @@
       </c>
       <c r="G48" s="15"/>
       <c r="H48" s="5"/>
-      <c r="I48" s="16"/>
+      <c r="I48" s="5"/>
     </row>
     <row r="49" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="14">
@@ -2180,7 +2187,7 @@
       <c r="B49" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D49" s="4" t="s">
@@ -2194,7 +2201,7 @@
       </c>
       <c r="G49" s="15"/>
       <c r="H49" s="5"/>
-      <c r="I49" s="16"/>
+      <c r="I49" s="5"/>
     </row>
     <row r="50" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A50" s="14">
@@ -2203,7 +2210,7 @@
       <c r="B50" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D50" s="4" t="s">
@@ -2217,7 +2224,7 @@
       </c>
       <c r="G50" s="15"/>
       <c r="H50" s="5"/>
-      <c r="I50" s="16"/>
+      <c r="I50" s="5"/>
     </row>
     <row r="51" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A51" s="14">
@@ -2226,7 +2233,7 @@
       <c r="B51" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D51" s="4" t="s">
@@ -2240,7 +2247,7 @@
       </c>
       <c r="G51" s="15"/>
       <c r="H51" s="5"/>
-      <c r="I51" s="16"/>
+      <c r="I51" s="5"/>
     </row>
     <row r="52" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="14">
@@ -2249,7 +2256,7 @@
       <c r="B52" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D52" s="4" t="s">
@@ -2263,7 +2270,7 @@
       </c>
       <c r="G52" s="15"/>
       <c r="H52" s="5"/>
-      <c r="I52" s="16"/>
+      <c r="I52" s="5"/>
     </row>
     <row r="53" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A53" s="14">
@@ -2272,7 +2279,7 @@
       <c r="B53" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D53" s="4" t="s">
@@ -2286,7 +2293,7 @@
       </c>
       <c r="G53" s="15"/>
       <c r="H53" s="5"/>
-      <c r="I53" s="16"/>
+      <c r="I53" s="5"/>
     </row>
     <row r="54" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A54" s="14">
@@ -2295,7 +2302,7 @@
       <c r="B54" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C54" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D54" s="4" t="s">
@@ -2309,7 +2316,7 @@
       </c>
       <c r="G54" s="15"/>
       <c r="H54" s="5"/>
-      <c r="I54" s="16"/>
+      <c r="I54" s="5"/>
     </row>
     <row r="55" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="14">
@@ -2318,7 +2325,7 @@
       <c r="B55" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D55" s="4" t="s">
@@ -2332,7 +2339,7 @@
       </c>
       <c r="G55" s="15"/>
       <c r="H55" s="5"/>
-      <c r="I55" s="16"/>
+      <c r="I55" s="5"/>
     </row>
     <row r="56" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A56" s="14">
@@ -2341,7 +2348,7 @@
       <c r="B56" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C56" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D56" s="4" t="s">
@@ -2355,7 +2362,7 @@
       </c>
       <c r="G56" s="15"/>
       <c r="H56" s="5"/>
-      <c r="I56" s="16"/>
+      <c r="I56" s="5"/>
     </row>
     <row r="57" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A57" s="14">
@@ -2364,7 +2371,7 @@
       <c r="B57" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="C57" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D57" s="4" t="s">
@@ -2378,7 +2385,7 @@
       </c>
       <c r="G57" s="15"/>
       <c r="H57" s="5"/>
-      <c r="I57" s="16"/>
+      <c r="I57" s="5"/>
     </row>
     <row r="58" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A58" s="14">
@@ -2387,7 +2394,7 @@
       <c r="B58" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C58" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D58" s="4" t="s">
@@ -2401,7 +2408,7 @@
       </c>
       <c r="G58" s="15"/>
       <c r="H58" s="5"/>
-      <c r="I58" s="16"/>
+      <c r="I58" s="5"/>
     </row>
     <row r="59" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A59" s="14">
@@ -2410,7 +2417,7 @@
       <c r="B59" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C59" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D59" s="4" t="s">
@@ -2424,16 +2431,16 @@
       </c>
       <c r="G59" s="15"/>
       <c r="H59" s="5"/>
-      <c r="I59" s="16"/>
-    </row>
-    <row r="60" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A60" s="14">
         <v>1204199061</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C60" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D60" s="4" t="s">
@@ -2447,7 +2454,7 @@
       </c>
       <c r="G60" s="15"/>
       <c r="H60" s="5"/>
-      <c r="I60" s="16"/>
+      <c r="I60" s="5"/>
     </row>
     <row r="61" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A61" s="14">
@@ -2456,7 +2463,7 @@
       <c r="B61" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D61" s="4" t="s">
@@ -2470,7 +2477,7 @@
       </c>
       <c r="G61" s="15"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="16"/>
+      <c r="I61" s="5"/>
     </row>
     <row r="62" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="14">
@@ -2479,7 +2486,7 @@
       <c r="B62" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C62" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D62" s="4" t="s">
@@ -2493,7 +2500,7 @@
       </c>
       <c r="G62" s="15"/>
       <c r="H62" s="5"/>
-      <c r="I62" s="16"/>
+      <c r="I62" s="5"/>
     </row>
     <row r="63" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A63" s="14">
@@ -2502,7 +2509,7 @@
       <c r="B63" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C63" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D63" s="4" t="s">
@@ -2516,7 +2523,7 @@
       </c>
       <c r="G63" s="15"/>
       <c r="H63" s="5"/>
-      <c r="I63" s="16"/>
+      <c r="I63" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I63" xr:uid="{C966F923-3B2B-4299-B621-1C0A34313445}"/>

--- a/master data mahasiswa TA.xlsx
+++ b/master data mahasiswa TA.xlsx
@@ -1,45 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfbee3ff0ebd21f1/simta application/simta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="185" documentId="13_ncr:1_{4A241A65-AA4C-4EC9-BF8C-2144BB719C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4FBF92E-8208-45B4-B33B-0CC43AC26949}"/>
+  <xr:revisionPtr revIDLastSave="204" documentId="13_ncr:1_{4A241A65-AA4C-4EC9-BF8C-2144BB719C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{217A56B4-0954-4AE9-AAC6-B93DC7AACBAA}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9D7D56C9-3BFC-42AD-8CDB-4B7184614D5D}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{9D7D56C9-3BFC-42AD-8CDB-4B7184614D5D}"/>
   </bookViews>
   <sheets>
     <sheet name="gjl 22.23" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'gjl 22.23'!$A$1:$I$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'gjl 22.23'!$A$2:$I$64</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="151">
   <si>
     <t>nim</t>
   </si>
@@ -477,13 +466,28 @@
   </si>
   <si>
     <t>Analisis Kepuasan Pengguna Aplikasi Mobile E-Learning Dengan Metode Technology Acceptance Model (Tam) (Studi Kasus Pada Jurusan Sistem Informasi Institut Teknologi Telkom Surabaya)</t>
+  </si>
+  <si>
+    <t>Sistem Informasi Manajemen Tugas Akhir</t>
+  </si>
+  <si>
+    <t>Rancang Bangun Aplikasi Scav Hand dengan Metode Unified Modeling Language</t>
+  </si>
+  <si>
+    <t>Analisis Pengaruh e-WoM dan Motivasi Terhadap Minat Beli Virtual Goods pada Video Game Online (Studi pada Mahasiswa Fakultas Teknologi Informasi dan Industri Institut Teknologi Telkom Surabaya)</t>
+  </si>
+  <si>
+    <t>Rancang Bangun Masima.com Sebagai Website Penghubung Penyedia Makanan dan Yayasan Amal Penyalur Donasi Makanan Siap Konsumsi</t>
+  </si>
+  <si>
+    <t>Hi Print: Sistem Informasi Layanan Percetakan Berbasis Website Menggunakan Framework Laravel Guna Meningkatkan Customer Relationship Management</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,6 +564,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="72"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -594,7 +605,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -617,18 +628,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -672,7 +677,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -993,12 +1000,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C966F923-3B2B-4299-B621-1C0A34313445}">
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C7" sqref="C7"/>
-      <selection pane="bottomLeft" activeCell="J39" sqref="J39"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1011,1539 +1018,1563 @@
     <col min="6" max="6" width="11.36328125" customWidth="1"/>
     <col min="7" max="7" width="8.54296875" customWidth="1"/>
     <col min="8" max="8" width="10.81640625" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="27" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I2" s="20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16">
+    <row r="3" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="14">
         <v>1204181014</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="23" t="s">
+      <c r="H3" s="9"/>
+      <c r="I3" s="21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="16">
+    <row r="4" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="14">
         <v>1204181023</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="23" t="s">
+      <c r="H4" s="9"/>
+      <c r="I4" s="21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15">
+    <row r="5" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13">
         <v>1204180002</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="23" t="s">
+      <c r="H5" s="9"/>
+      <c r="I5" s="21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="15">
+    <row r="6" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="13">
         <v>1204180003</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="23" t="s">
+      <c r="H6" s="9"/>
+      <c r="I6" s="21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="15">
+    <row r="7" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="13">
         <v>1204180006</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="24"/>
-    </row>
-    <row r="7" spans="1:9" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15">
+      <c r="H7" s="9"/>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="1:9" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13">
         <v>1204180007</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="24"/>
-    </row>
-    <row r="8" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="15">
+      <c r="H8" s="9"/>
+      <c r="I8" s="22"/>
+    </row>
+    <row r="9" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="13">
         <v>1204180009</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H9" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="25"/>
-    </row>
-    <row r="9" spans="1:9" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="15">
+      <c r="I9" s="23"/>
+    </row>
+    <row r="10" spans="1:9" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13">
         <v>1204180013</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="25"/>
-    </row>
-    <row r="10" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="15">
+      <c r="H10" s="9"/>
+      <c r="I10" s="23"/>
+    </row>
+    <row r="11" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="13">
         <v>1204180016</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="15" t="s">
+      <c r="D11" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="25"/>
-    </row>
-    <row r="11" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="15">
+      <c r="H11" s="9"/>
+      <c r="I11" s="23"/>
+    </row>
+    <row r="12" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="13">
         <v>1204180024</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C12" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E12" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="25"/>
-    </row>
-    <row r="12" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="15">
+      <c r="H12" s="9"/>
+      <c r="I12" s="23"/>
+    </row>
+    <row r="13" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="13">
         <v>1204180026</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C13" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E13" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="23" t="s">
+      <c r="H13" s="9"/>
+      <c r="I13" s="21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="15">
+    <row r="14" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="13">
         <v>1204180027</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C14" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E14" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F14" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="25"/>
-    </row>
-    <row r="14" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="15">
+      <c r="H14" s="9"/>
+      <c r="I14" s="23"/>
+    </row>
+    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="13">
         <v>1204180029</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C15" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F15" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="23" t="s">
+      <c r="H15" s="9"/>
+      <c r="I15" s="21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="15">
+    <row r="16" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="13">
         <v>1204180031</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C16" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E16" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F16" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G16" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="26"/>
-    </row>
-    <row r="16" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="15">
+      <c r="H16" s="9"/>
+      <c r="I16" s="24"/>
+    </row>
+    <row r="17" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="13">
         <v>1204181004</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C17" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E17" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F17" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G17" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="25"/>
-    </row>
-    <row r="17" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="15">
+      <c r="H17" s="9"/>
+      <c r="I17" s="23"/>
+    </row>
+    <row r="18" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="13">
         <v>1204181008</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C18" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F18" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G18" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="23" t="s">
+      <c r="H18" s="9"/>
+      <c r="I18" s="21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="15">
+    <row r="19" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="13">
         <v>1204181011</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C19" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F19" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G19" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="23" t="s">
+      <c r="H19" s="9"/>
+      <c r="I19" s="21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="15">
+    <row r="20" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="13">
         <v>1204181021</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C20" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F20" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G20" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="25"/>
-    </row>
-    <row r="20" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="15">
+      <c r="H20" s="9"/>
+      <c r="I20" s="23"/>
+    </row>
+    <row r="21" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="13">
         <v>1204181028</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E21" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F21" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G21" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="25"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="15">
+      <c r="H21" s="9"/>
+      <c r="I21" s="23"/>
+    </row>
+    <row r="22" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="13">
         <v>1204183030</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C22" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E22" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F22" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G22" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="25"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="15">
+      <c r="H22" s="9"/>
+      <c r="I22" s="23"/>
+    </row>
+    <row r="23" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="13">
         <v>1204180005</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C23" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="15" t="s">
+      <c r="D23" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F23" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="25"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="15">
+      <c r="G23" s="13"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="23"/>
+    </row>
+    <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="13">
         <v>1204180015</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C24" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D24" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E24" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F24" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="23" t="s">
+      <c r="G24" s="13"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="15">
+    <row r="25" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="13">
         <v>1204180017</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C25" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="15" t="s">
+      <c r="D25" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F25" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="26"/>
-    </row>
-    <row r="25" spans="1:9" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="15">
+      <c r="G25" s="13"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="24"/>
+    </row>
+    <row r="26" spans="1:9" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="13">
         <v>1204180018</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C26" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E26" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F26" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="23" t="s">
+      <c r="G26" s="13"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="15">
+    <row r="27" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="13">
         <v>1204180019</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C27" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D27" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E27" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F27" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="23" t="s">
+      <c r="G27" s="13"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="15">
+    <row r="28" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="13">
         <v>1204180020</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C28" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="15" t="s">
+      <c r="D28" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E28" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F28" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="15"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="25"/>
-    </row>
-    <row r="28" spans="1:9" ht="50" x14ac:dyDescent="0.35">
-      <c r="A28" s="14">
+      <c r="G28" s="13"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="23"/>
+    </row>
+    <row r="29" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+      <c r="A29" s="12">
         <v>1204199045</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B29" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="4" t="s">
+      <c r="C29" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E29" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F29" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="14">
-        <v>1204190066</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="15"/>
+      <c r="G29" s="13"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
     <row r="30" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="14">
-        <v>1204199039</v>
+      <c r="A30" s="12">
+        <v>1204190066</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="G30" s="15"/>
+        <v>75</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="13"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="14">
-        <v>1204190051</v>
+    <row r="31" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="12">
+        <v>1204199039</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E31" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F31" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G31" s="15"/>
+      <c r="G31" s="13"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
     </row>
     <row r="32" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="14">
-        <v>1204190018</v>
+      <c r="A32" s="12">
+        <v>1204190051</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" s="15"/>
+        <v>81</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="13"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
     </row>
     <row r="33" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="14">
-        <v>1204190050</v>
+      <c r="A33" s="12">
+        <v>1204190018</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F33" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="15"/>
+      <c r="G33" s="13"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="14">
-        <v>1204190057</v>
+    <row r="34" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="12">
+        <v>1204190050</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F34" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G34" s="15"/>
+      <c r="F34" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="13"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="14">
-        <v>1204192062</v>
+    <row r="35" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="12">
+        <v>1204190057</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="G35" s="15"/>
+      <c r="G35" s="13"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A36" s="14">
-        <v>1204190002</v>
+    <row r="36" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="12">
+        <v>1204192062</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G36" s="15"/>
+        <v>89</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" s="13"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A37" s="14">
-        <v>1204192013</v>
+      <c r="A37" s="12">
+        <v>1204190002</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" s="15"/>
+        <v>91</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" s="13"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A38" s="14">
-        <v>1204199007</v>
+      <c r="A38" s="12">
+        <v>1204192013</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="15"/>
+        <v>93</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="13"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A39" s="14">
-        <v>1204199001</v>
+      <c r="A39" s="12">
+        <v>1204199007</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="15"/>
+      <c r="F39" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="13"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="14">
-        <v>1204190067</v>
+    <row r="40" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A40" s="12">
+        <v>1204199001</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="15"/>
+        <v>97</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="13"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="14">
-        <v>1204190006</v>
+      <c r="A41" s="12">
+        <v>1204190067</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E41" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F41" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="15"/>
+      <c r="G41" s="13"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="14">
-        <v>1204190046</v>
+      <c r="A42" s="12">
+        <v>1204190006</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C42" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G42" s="15"/>
+      <c r="F42" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="13"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A43" s="14">
-        <v>1204190021</v>
+    <row r="43" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="12">
+        <v>1204190046</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C43" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G43" s="15"/>
+        <v>103</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="13"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="14">
-        <v>1204190014</v>
+    <row r="44" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A44" s="12">
+        <v>1204190021</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C44" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G44" s="15"/>
+        <v>105</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" s="13"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="14">
-        <v>1204190032</v>
+    <row r="45" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+      <c r="A45" s="12">
+        <v>1204190014</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C45" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E45" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E45" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F45" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="G45" s="15"/>
+      <c r="F45" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" s="13"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
     </row>
-    <row r="46" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A46" s="14">
-        <v>1204190037</v>
+    <row r="46" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="12">
+        <v>1204190032</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C46" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F46" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E46" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="15"/>
+      <c r="F46" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G46" s="13"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="14">
-        <v>1204190010</v>
+    <row r="47" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A47" s="12">
+        <v>1204190037</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C47" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47" s="15"/>
+        <v>111</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47" s="13"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
     <row r="48" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="14">
-        <v>1204190015</v>
+      <c r="A48" s="12">
+        <v>1204190010</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C48" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="G48" s="15"/>
+        <v>113</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" s="13"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
     </row>
-    <row r="49" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A49" s="14">
-        <v>1204190029</v>
+    <row r="49" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="12">
+        <v>1204190015</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C49" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E49" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E49" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F49" s="14" t="s">
+      <c r="F49" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G49" s="15"/>
+      <c r="G49" s="13"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
     </row>
     <row r="50" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="14">
-        <v>1204190058</v>
+      <c r="A50" s="12">
+        <v>1204190029</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C50" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G50" s="15"/>
+        <v>117</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G50" s="13"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
     </row>
-    <row r="51" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A51" s="14">
-        <v>1204190069</v>
+    <row r="51" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="12">
+        <v>1204190058</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C51" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="15"/>
+        <v>119</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51" s="13"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
     </row>
-    <row r="52" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A52" s="14">
-        <v>1204199043</v>
+    <row r="52" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A52" s="12">
+        <v>1204190069</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C52" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G52" s="15"/>
+        <v>121</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="13"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
     </row>
-    <row r="53" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A53" s="14">
-        <v>1204190049</v>
+    <row r="53" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A53" s="12">
+        <v>1204199043</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G53" s="15"/>
+        <v>123</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G53" s="13"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
     </row>
     <row r="54" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A54" s="14">
-        <v>1204190060</v>
+      <c r="A54" s="12">
+        <v>1204190049</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C54" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F54" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F54" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G54" s="15"/>
+      <c r="G54" s="13"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
     </row>
-    <row r="55" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A55" s="14">
-        <v>1204190073</v>
+    <row r="55" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A55" s="12">
+        <v>1204190060</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C55" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F55" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G55" s="15"/>
+        <v>127</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" s="13"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
     </row>
-    <row r="56" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A56" s="14">
-        <v>1204190012</v>
+    <row r="56" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A56" s="12">
+        <v>1204190073</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C56" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F56" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="15"/>
+        <v>129</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" s="13"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
     </row>
     <row r="57" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A57" s="14">
-        <v>1204192020</v>
+      <c r="A57" s="12">
+        <v>1204190012</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C57" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E57" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E57" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F57" s="14" t="s">
+      <c r="F57" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G57" s="15"/>
+      <c r="G57" s="13"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
     </row>
-    <row r="58" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="14">
-        <v>1204190042</v>
+    <row r="58" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A58" s="12">
+        <v>1204192020</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C58" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C58" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G58" s="15"/>
+        <v>133</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="13"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
     </row>
     <row r="59" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="14">
-        <v>1204190011</v>
+      <c r="A59" s="12">
+        <v>1204190042</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C59" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F59" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" s="15"/>
+        <v>135</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G59" s="13"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
     </row>
     <row r="60" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="14">
-        <v>1204199061</v>
+      <c r="A60" s="12">
+        <v>1204190011</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C60" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="G60" s="15"/>
+        <v>137</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="13"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
     </row>
     <row r="61" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="14">
-        <v>1204192030</v>
+      <c r="A61" s="12">
+        <v>1204199061</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C61" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F61" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G61" s="15"/>
+        <v>139</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G61" s="13"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
     </row>
-    <row r="62" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A62" s="14">
-        <v>1204190017</v>
+    <row r="62" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="12">
+        <v>1204192030</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C62" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F62" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" s="15"/>
+        <v>141</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62" s="13"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
     </row>
-    <row r="63" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="14">
-        <v>1204190063</v>
+    <row r="63" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A63" s="12">
+        <v>1204190017</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C63" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E63" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F63" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" s="15"/>
+        <v>143</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="13"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
     </row>
+    <row r="64" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="12">
+        <v>1204190063</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="13"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I63" xr:uid="{C966F923-3B2B-4299-B621-1C0A34313445}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A28:I63">
-    <sortCondition ref="B27:B63"/>
+  <autoFilter ref="A2:I64" xr:uid="{C966F923-3B2B-4299-B621-1C0A34313445}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A29:I64">
+    <sortCondition ref="B28:B64"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1" xr:uid="{2A9FD543-F1D8-4D61-91CA-D409BE0031B4}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{86A5B857-2202-4728-B36A-58C30184F12F}"/>
-    <hyperlink ref="I3" r:id="rId3" xr:uid="{9E35E487-BF15-41F8-BDD0-DA0F4E02C26E}"/>
-    <hyperlink ref="I26" r:id="rId4" xr:uid="{8082EF1A-B369-42BA-A508-46F33570DDD3}"/>
-    <hyperlink ref="I25" r:id="rId5" xr:uid="{F6D26170-CC34-4814-9813-731FC926C3C8}"/>
-    <hyperlink ref="I23" r:id="rId6" xr:uid="{48296A1B-C4EB-4B07-B20D-87CE81713BE4}"/>
-    <hyperlink ref="I18" r:id="rId7" xr:uid="{0A5076F6-C12D-47BD-A601-41C5F1B3EAF0}"/>
-    <hyperlink ref="I17" r:id="rId8" xr:uid="{D8F465B6-E09E-43C8-83B8-D1CD244F3734}"/>
-    <hyperlink ref="I14" r:id="rId9" xr:uid="{7EBE9081-3A3F-47F7-A592-4A3E21DC4497}"/>
-    <hyperlink ref="I12" r:id="rId10" xr:uid="{53714937-260A-4B72-9322-CF61453C11CD}"/>
-    <hyperlink ref="I5" r:id="rId11" xr:uid="{D633971B-8A3E-4614-B76B-BD77411CC826}"/>
-    <hyperlink ref="H8" r:id="rId12" xr:uid="{65718306-DD42-4677-8046-81AEF54C0054}"/>
+    <hyperlink ref="I5" r:id="rId1" xr:uid="{2A9FD543-F1D8-4D61-91CA-D409BE0031B4}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{86A5B857-2202-4728-B36A-58C30184F12F}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{9E35E487-BF15-41F8-BDD0-DA0F4E02C26E}"/>
+    <hyperlink ref="I27" r:id="rId4" xr:uid="{8082EF1A-B369-42BA-A508-46F33570DDD3}"/>
+    <hyperlink ref="I26" r:id="rId5" xr:uid="{F6D26170-CC34-4814-9813-731FC926C3C8}"/>
+    <hyperlink ref="I24" r:id="rId6" xr:uid="{48296A1B-C4EB-4B07-B20D-87CE81713BE4}"/>
+    <hyperlink ref="I19" r:id="rId7" xr:uid="{0A5076F6-C12D-47BD-A601-41C5F1B3EAF0}"/>
+    <hyperlink ref="I18" r:id="rId8" xr:uid="{D8F465B6-E09E-43C8-83B8-D1CD244F3734}"/>
+    <hyperlink ref="I15" r:id="rId9" xr:uid="{7EBE9081-3A3F-47F7-A592-4A3E21DC4497}"/>
+    <hyperlink ref="I13" r:id="rId10" xr:uid="{53714937-260A-4B72-9322-CF61453C11CD}"/>
+    <hyperlink ref="I6" r:id="rId11" xr:uid="{D633971B-8A3E-4614-B76B-BD77411CC826}"/>
+    <hyperlink ref="H9" r:id="rId12" xr:uid="{65718306-DD42-4677-8046-81AEF54C0054}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId13"/>

--- a/master data mahasiswa TA.xlsx
+++ b/master data mahasiswa TA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfbee3ff0ebd21f1/simta application/simta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="204" documentId="13_ncr:1_{4A241A65-AA4C-4EC9-BF8C-2144BB719C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{217A56B4-0954-4AE9-AAC6-B93DC7AACBAA}"/>
+  <xr:revisionPtr revIDLastSave="205" documentId="13_ncr:1_{4A241A65-AA4C-4EC9-BF8C-2144BB719C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6744905C-A5A0-4F26-8D82-D87C2B6398EB}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{9D7D56C9-3BFC-42AD-8CDB-4B7184614D5D}"/>
+    <workbookView xWindow="0" yWindow="2680" windowWidth="19200" windowHeight="7270" xr2:uid="{9D7D56C9-3BFC-42AD-8CDB-4B7184614D5D}"/>
   </bookViews>
   <sheets>
     <sheet name="gjl 22.23" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="150">
   <si>
     <t>nim</t>
   </si>
@@ -466,9 +466,6 @@
   </si>
   <si>
     <t>Analisis Kepuasan Pengguna Aplikasi Mobile E-Learning Dengan Metode Technology Acceptance Model (Tam) (Studi Kasus Pada Jurusan Sistem Informasi Institut Teknologi Telkom Surabaya)</t>
-  </si>
-  <si>
-    <t>Sistem Informasi Manajemen Tugas Akhir</t>
   </si>
   <si>
     <t>Rancang Bangun Aplikasi Scav Hand dengan Metode Unified Modeling Language</t>
@@ -1005,7 +1002,7 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C7" sqref="C7"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1022,9 +1019,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>146</v>
-      </c>
+      <c r="A1" s="25"/>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
@@ -1284,7 +1279,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>31</v>
@@ -1592,7 +1587,7 @@
         <v>21</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>41</v>
@@ -1640,7 +1635,7 @@
         <v>21</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>31</v>
@@ -1713,7 +1708,7 @@
         <v>21</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>31</v>
@@ -2093,7 +2088,7 @@
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A45" s="12">
         <v>1204190014</v>
       </c>
@@ -2208,7 +2203,7 @@
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
     </row>
-    <row r="50" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="12">
         <v>1204190029</v>
       </c>

--- a/master data mahasiswa TA.xlsx
+++ b/master data mahasiswa TA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfbee3ff0ebd21f1/simta application/simta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="205" documentId="13_ncr:1_{4A241A65-AA4C-4EC9-BF8C-2144BB719C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6744905C-A5A0-4F26-8D82-D87C2B6398EB}"/>
+  <xr:revisionPtr revIDLastSave="206" documentId="13_ncr:1_{4A241A65-AA4C-4EC9-BF8C-2144BB719C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1A35786-92F9-43E2-BBAA-AF77A1635751}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2680" windowWidth="19200" windowHeight="7270" xr2:uid="{9D7D56C9-3BFC-42AD-8CDB-4B7184614D5D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9D7D56C9-3BFC-42AD-8CDB-4B7184614D5D}"/>
   </bookViews>
   <sheets>
     <sheet name="gjl 22.23" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="150">
   <si>
     <t>nim</t>
   </si>
@@ -1000,9 +1000,9 @@
   <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C7" sqref="C7"/>
-      <selection pane="bottomLeft" sqref="A1:I1"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1666,7 +1666,9 @@
       <c r="F26" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="13"/>
+      <c r="G26" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="H26" s="9"/>
       <c r="I26" s="21" t="s">
         <v>15</v>
@@ -1691,7 +1693,9 @@
       <c r="F27" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="13"/>
+      <c r="G27" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="H27" s="9"/>
       <c r="I27" s="21" t="s">
         <v>15</v>
@@ -1716,7 +1720,9 @@
       <c r="F28" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="13"/>
+      <c r="G28" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="H28" s="9"/>
       <c r="I28" s="23"/>
     </row>
@@ -1739,7 +1745,9 @@
       <c r="F29" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="13"/>
+      <c r="G29" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
@@ -1762,7 +1770,9 @@
       <c r="F30" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="13"/>
+      <c r="G30" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
     </row>
@@ -1785,7 +1795,9 @@
       <c r="F31" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G31" s="13"/>
+      <c r="G31" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
     </row>
@@ -1831,7 +1843,9 @@
       <c r="F33" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="13"/>
+      <c r="G33" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
@@ -1877,7 +1891,9 @@
       <c r="F35" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="13"/>
+      <c r="G35" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
     </row>
@@ -1946,7 +1962,9 @@
       <c r="F38" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="13"/>
+      <c r="G38" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
     </row>
@@ -2038,7 +2056,9 @@
       <c r="F42" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G42" s="13"/>
+      <c r="G42" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
     </row>
@@ -2061,7 +2081,9 @@
       <c r="F43" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G43" s="13"/>
+      <c r="G43" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
     </row>
@@ -2084,11 +2106,13 @@
       <c r="F44" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G44" s="13"/>
+      <c r="G44" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="50" x14ac:dyDescent="0.35">
       <c r="A45" s="12">
         <v>1204190014</v>
       </c>
@@ -2153,7 +2177,9 @@
       <c r="F47" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G47" s="13"/>
+      <c r="G47" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
@@ -2176,7 +2202,9 @@
       <c r="F48" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G48" s="13"/>
+      <c r="G48" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
     </row>
@@ -2199,11 +2227,13 @@
       <c r="F49" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G49" s="13"/>
+      <c r="G49" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
     </row>
-    <row r="50" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A50" s="12">
         <v>1204190029</v>
       </c>
@@ -2268,7 +2298,9 @@
       <c r="F52" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G52" s="13"/>
+      <c r="G52" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
     </row>
@@ -2291,7 +2323,9 @@
       <c r="F53" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G53" s="13"/>
+      <c r="G53" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
     </row>
@@ -2337,7 +2371,9 @@
       <c r="F55" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G55" s="13"/>
+      <c r="G55" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
     </row>
@@ -2360,7 +2396,9 @@
       <c r="F56" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G56" s="13"/>
+      <c r="G56" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
     </row>
@@ -2383,7 +2421,9 @@
       <c r="F57" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G57" s="13"/>
+      <c r="G57" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
     </row>
@@ -2406,7 +2446,9 @@
       <c r="F58" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G58" s="13"/>
+      <c r="G58" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
     </row>
@@ -2429,7 +2471,9 @@
       <c r="F59" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G59" s="13"/>
+      <c r="G59" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
     </row>
@@ -2452,7 +2496,9 @@
       <c r="F60" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G60" s="13"/>
+      <c r="G60" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
     </row>
@@ -2475,7 +2521,9 @@
       <c r="F61" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G61" s="13"/>
+      <c r="G61" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
     </row>
@@ -2498,7 +2546,9 @@
       <c r="F62" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G62" s="13"/>
+      <c r="G62" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
     </row>
